--- a/Advance Stock/UOM.xlsx
+++ b/Advance Stock/UOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Advance Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CFBF4B-D5CE-4FA3-A569-E9BD626CD7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9214B377-0C43-4CF9-9576-4A6371A8EE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF65A185-A3B8-4AF1-905D-A5939FA8F4CD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="1094">
   <si>
     <t>SKU Name</t>
   </si>
@@ -3301,6 +3301,12 @@
   </si>
   <si>
     <t>SKU Code</t>
+  </si>
+  <si>
+    <t>ECSTAR PETROL 0W-16 FE-210 L</t>
+  </si>
+  <si>
+    <t>SERVO PREMIUM CF-4 15W-40-4x5L - PROMO</t>
   </si>
 </sst>
 </file>
@@ -3658,10 +3664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1903B9F1-43DC-44BD-B1E4-00910B416442}">
-  <dimension ref="A1:C1099"/>
+  <dimension ref="A1:C1101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A1087" workbookViewId="0">
+      <selection activeCell="C1107" sqref="C1107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15760,6 +15766,28 @@
         <v>210</v>
       </c>
     </row>
+    <row r="1100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1100" s="1">
+        <v>7079401</v>
+      </c>
+      <c r="B1100" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C1100" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1101" s="1">
+        <v>7577240</v>
+      </c>
+      <c r="B1101" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1101" s="1">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Advance Stock/UOM.xlsx
+++ b/Advance Stock/UOM.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Advance Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9214B377-0C43-4CF9-9576-4A6371A8EE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008ECE0B-B1A6-4399-A75E-000EEAEC821C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF65A185-A3B8-4AF1-905D-A5939FA8F4CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1101</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -711,9 +714,6 @@
     <t>HY SERVO PETROL EO SN PLUS-4 X 4 L</t>
   </si>
   <si>
-    <t>HYUNDAI SERVO DEO ACEA C5-4 X 5 L</t>
-  </si>
-  <si>
     <t>ECSTAR PETROL 0W-20-20 X 1 L</t>
   </si>
   <si>
@@ -3307,6 +3307,9 @@
   </si>
   <si>
     <t>SERVO PREMIUM CF-4 15W-40-4x5L - PROMO</t>
+  </si>
+  <si>
+    <t>HYUNDAI SERVO DEO ACEA C5-4 X 5 LUBE</t>
   </si>
 </sst>
 </file>
@@ -3666,8 +3669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1903B9F1-43DC-44BD-B1E4-00910B416442}">
   <dimension ref="A1:C1101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1087" workbookViewId="0">
-      <selection activeCell="C1107" sqref="C1107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3679,7 +3682,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -6190,7 +6193,7 @@
         <v>7421234</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>228</v>
+        <v>1093</v>
       </c>
       <c r="C229" s="1">
         <v>20.000000000000014</v>
@@ -6201,7 +6204,7 @@
         <v>7427184</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C230" s="1">
         <v>20.000000000000014</v>
@@ -6212,7 +6215,7 @@
         <v>7427213</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C231" s="1">
         <v>14.000000000000004</v>
@@ -6223,7 +6226,7 @@
         <v>7428184</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C232" s="1">
         <v>20.000000000000014</v>
@@ -6234,7 +6237,7 @@
         <v>7428213</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C233" s="1">
         <v>14.000000000000004</v>
@@ -6245,7 +6248,7 @@
         <v>7429184</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C234" s="1">
         <v>20.000000000000014</v>
@@ -6256,7 +6259,7 @@
         <v>7429234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C235" s="1">
         <v>20.000000000000014</v>
@@ -6267,7 +6270,7 @@
         <v>7429240</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C236" s="1">
         <v>20</v>
@@ -6278,7 +6281,7 @@
         <v>7429244</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C237" s="1">
         <v>24</v>
@@ -6289,7 +6292,7 @@
         <v>7429296</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C238" s="1">
         <v>7</v>
@@ -6300,7 +6303,7 @@
         <v>7429297</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C239" s="1">
         <v>7</v>
@@ -6311,7 +6314,7 @@
         <v>7430184</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C240" s="1">
         <v>20.000000000000014</v>
@@ -6322,7 +6325,7 @@
         <v>7430234</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C241" s="1">
         <v>20.000000000000014</v>
@@ -6333,7 +6336,7 @@
         <v>7430240</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C242" s="1">
         <v>20</v>
@@ -6344,7 +6347,7 @@
         <v>7430296</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C243" s="1">
         <v>7</v>
@@ -6355,7 +6358,7 @@
         <v>7430297</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C244" s="1">
         <v>7</v>
@@ -6366,7 +6369,7 @@
         <v>7434256</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C245" s="1">
         <v>15.000000000000009</v>
@@ -6377,7 +6380,7 @@
         <v>7435175</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C246" s="1">
         <v>10.000000000000005</v>
@@ -6388,7 +6391,7 @@
         <v>7435184</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C247" s="1">
         <v>20.000000000000014</v>
@@ -6399,7 +6402,7 @@
         <v>7435203</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C248" s="1">
         <v>12.000000000000005</v>
@@ -6410,7 +6413,7 @@
         <v>7435234</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C249" s="1">
         <v>20.000000000000014</v>
@@ -6421,7 +6424,7 @@
         <v>7435242</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C250" s="1">
         <v>10.000000000000005</v>
@@ -6432,7 +6435,7 @@
         <v>7435251</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C251" s="1">
         <v>7.5000000000000053</v>
@@ -6443,7 +6446,7 @@
         <v>7435256</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C252" s="1">
         <v>15.000000000000009</v>
@@ -6454,7 +6457,7 @@
         <v>7435265</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C253" s="1">
         <v>20.000000000000014</v>
@@ -6465,7 +6468,7 @@
         <v>7436184</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C254" s="1">
         <v>20.000000000000014</v>
@@ -6476,7 +6479,7 @@
         <v>7436229</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C255" s="1">
         <v>20</v>
@@ -6487,7 +6490,7 @@
         <v>7436250</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C256" s="1">
         <v>7.5</v>
@@ -6498,7 +6501,7 @@
         <v>7436253</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C257" s="1">
         <v>15</v>
@@ -6509,7 +6512,7 @@
         <v>7436256</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C258" s="1">
         <v>15.000000000000009</v>
@@ -6520,7 +6523,7 @@
         <v>7469184</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C259" s="1">
         <v>20.000000000000014</v>
@@ -6531,7 +6534,7 @@
         <v>7469213</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C260" s="1">
         <v>14.000000000000004</v>
@@ -6542,7 +6545,7 @@
         <v>7469234</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C261" s="1">
         <v>20.000000000000014</v>
@@ -6553,7 +6556,7 @@
         <v>7469244</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C262" s="1">
         <v>24</v>
@@ -6564,7 +6567,7 @@
         <v>7469290</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C263" s="1">
         <v>15</v>
@@ -6575,7 +6578,7 @@
         <v>7469292</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C264" s="1">
         <v>14</v>
@@ -6586,7 +6589,7 @@
         <v>7470251</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C265" s="1">
         <v>7.5000000000000053</v>
@@ -6597,7 +6600,7 @@
         <v>7470256</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C266" s="1">
         <v>15.000000000000009</v>
@@ -6608,7 +6611,7 @@
         <v>7472184</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C267" s="1">
         <v>20.000000000000014</v>
@@ -6619,7 +6622,7 @@
         <v>7472203</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C268" s="1">
         <v>12.000000000000005</v>
@@ -6630,7 +6633,7 @@
         <v>7472234</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C269" s="1">
         <v>20.000000000000014</v>
@@ -6641,7 +6644,7 @@
         <v>7472251</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C270" s="1">
         <v>7.5000000000000053</v>
@@ -6652,7 +6655,7 @@
         <v>7472256</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C271" s="1">
         <v>15.000000000000009</v>
@@ -6663,7 +6666,7 @@
         <v>7475184</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C272" s="1">
         <v>20.000000000000014</v>
@@ -6674,7 +6677,7 @@
         <v>7475213</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C273" s="1">
         <v>14.000000000000004</v>
@@ -6685,7 +6688,7 @@
         <v>7476184</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C274" s="1">
         <v>20.000000000000014</v>
@@ -6696,7 +6699,7 @@
         <v>7476203</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C275" s="1">
         <v>12.000000000000005</v>
@@ -6707,7 +6710,7 @@
         <v>7477184</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C276" s="1">
         <v>20.000000000000014</v>
@@ -6718,7 +6721,7 @@
         <v>7477203</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C277" s="1">
         <v>12.000000000000005</v>
@@ -6729,7 +6732,7 @@
         <v>7481184</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C278" s="1">
         <v>20.000000000000014</v>
@@ -6740,7 +6743,7 @@
         <v>7481185</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C279" s="1">
         <v>10.000000000000005</v>
@@ -6751,7 +6754,7 @@
         <v>7485174</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C280" s="1">
         <v>20.000000000000011</v>
@@ -6762,7 +6765,7 @@
         <v>7485184</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C281" s="1">
         <v>20.000000000000014</v>
@@ -6773,7 +6776,7 @@
         <v>7485234</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C282" s="1">
         <v>20.000000000000014</v>
@@ -6784,7 +6787,7 @@
         <v>7485242</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C283" s="1">
         <v>10.000000000000005</v>
@@ -6795,7 +6798,7 @@
         <v>7485248</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C284" s="1">
         <v>7.5</v>
@@ -6806,7 +6809,7 @@
         <v>7485249</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C285" s="1">
         <v>10</v>
@@ -6817,7 +6820,7 @@
         <v>7485251</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C286" s="1">
         <v>7.5000000000000053</v>
@@ -6828,7 +6831,7 @@
         <v>7485265</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C287" s="1">
         <v>20.000000000000014</v>
@@ -6839,7 +6842,7 @@
         <v>7485273</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C288" s="1">
         <v>20</v>
@@ -6850,7 +6853,7 @@
         <v>7486184</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C289" s="1">
         <v>20.000000000000014</v>
@@ -6861,7 +6864,7 @@
         <v>7486203</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C290" s="1">
         <v>12.000000000000005</v>
@@ -6872,7 +6875,7 @@
         <v>7486251</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C291" s="1">
         <v>7.5000000000000053</v>
@@ -6883,7 +6886,7 @@
         <v>7488184</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C292" s="1">
         <v>20.000000000000014</v>
@@ -6894,7 +6897,7 @@
         <v>7488203</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C293" s="1">
         <v>12.000000000000005</v>
@@ -6905,7 +6908,7 @@
         <v>7488250</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C294" s="1">
         <v>7.5</v>
@@ -6916,7 +6919,7 @@
         <v>7488251</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C295" s="1">
         <v>7.5000000000000053</v>
@@ -6927,7 +6930,7 @@
         <v>7488253</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C296" s="1">
         <v>15</v>
@@ -6938,7 +6941,7 @@
         <v>7488256</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C297" s="1">
         <v>15.000000000000009</v>
@@ -6949,7 +6952,7 @@
         <v>7489184</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C298" s="1">
         <v>20.000000000000014</v>
@@ -6960,7 +6963,7 @@
         <v>7489203</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C299" s="1">
         <v>12.000000000000005</v>
@@ -6971,7 +6974,7 @@
         <v>7489234</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C300" s="1">
         <v>20.000000000000014</v>
@@ -6982,7 +6985,7 @@
         <v>7489241</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C301" s="1">
         <v>10</v>
@@ -6993,7 +6996,7 @@
         <v>7489242</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C302" s="1">
         <v>10.000000000000005</v>
@@ -7004,7 +7007,7 @@
         <v>7489250</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C303" s="1">
         <v>7.5</v>
@@ -7015,7 +7018,7 @@
         <v>7489251</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C304" s="1">
         <v>7.5000000000000053</v>
@@ -7026,7 +7029,7 @@
         <v>7489253</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C305" s="1">
         <v>15</v>
@@ -7037,7 +7040,7 @@
         <v>7489254</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C306" s="1">
         <v>17.999999999999996</v>
@@ -7048,7 +7051,7 @@
         <v>7489256</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C307" s="1">
         <v>15.000000000000009</v>
@@ -7059,7 +7062,7 @@
         <v>7489265</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C308" s="1">
         <v>20.000000000000014</v>
@@ -7070,7 +7073,7 @@
         <v>7489269</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C309" s="1">
         <v>20</v>
@@ -7081,7 +7084,7 @@
         <v>7489272</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C310" s="1">
         <v>15</v>
@@ -7092,7 +7095,7 @@
         <v>7489734</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C311" s="1">
         <v>20.000000000000014</v>
@@ -7103,7 +7106,7 @@
         <v>7494174</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C312" s="1">
         <v>20.000000000000011</v>
@@ -7114,7 +7117,7 @@
         <v>7494178</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C313" s="1">
         <v>10</v>
@@ -7125,7 +7128,7 @@
         <v>7494184</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C314" s="1">
         <v>20.000000000000014</v>
@@ -7136,7 +7139,7 @@
         <v>7494188</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C315" s="1">
         <v>20.000000000000004</v>
@@ -7147,7 +7150,7 @@
         <v>7494207</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C316" s="1">
         <v>20</v>
@@ -7158,7 +7161,7 @@
         <v>7494215</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C317" s="1">
         <v>20</v>
@@ -7169,7 +7172,7 @@
         <v>7494229</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C318" s="1">
         <v>20</v>
@@ -7180,7 +7183,7 @@
         <v>7494234</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C319" s="1">
         <v>20.000000000000014</v>
@@ -7191,7 +7194,7 @@
         <v>7494242</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C320" s="1">
         <v>10.000000000000005</v>
@@ -7202,7 +7205,7 @@
         <v>7494246</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C321" s="1">
         <v>7.5</v>
@@ -7213,7 +7216,7 @@
         <v>7494247</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C322" s="1">
         <v>10</v>
@@ -7224,7 +7227,7 @@
         <v>7494248</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C323" s="1">
         <v>7.5</v>
@@ -7235,7 +7238,7 @@
         <v>7494249</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C324" s="1">
         <v>10</v>
@@ -7246,7 +7249,7 @@
         <v>7494251</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C325" s="1">
         <v>7.5000000000000053</v>
@@ -7257,7 +7260,7 @@
         <v>7494261</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C326" s="1">
         <v>20</v>
@@ -7268,7 +7271,7 @@
         <v>7494265</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C327" s="1">
         <v>20.000000000000014</v>
@@ -7279,7 +7282,7 @@
         <v>7494273</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C328" s="1">
         <v>20</v>
@@ -7290,7 +7293,7 @@
         <v>7494678</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C329" s="1">
         <v>10</v>
@@ -7301,7 +7304,7 @@
         <v>7494688</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C330" s="1">
         <v>20.000000000000004</v>
@@ -7312,7 +7315,7 @@
         <v>7494707</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C331" s="1">
         <v>20</v>
@@ -7323,7 +7326,7 @@
         <v>7494715</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C332" s="1">
         <v>20</v>
@@ -7334,7 +7337,7 @@
         <v>7494734</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C333" s="1">
         <v>20.000000000000014</v>
@@ -7345,7 +7348,7 @@
         <v>7505195</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C334" s="1">
         <v>10</v>
@@ -7356,7 +7359,7 @@
         <v>7511184</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C335" s="1">
         <v>20.000000000000014</v>
@@ -7367,7 +7370,7 @@
         <v>7511195</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C336" s="1">
         <v>10</v>
@@ -7378,7 +7381,7 @@
         <v>7511234</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C337" s="1">
         <v>20.000000000000014</v>
@@ -7389,7 +7392,7 @@
         <v>7511240</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C338" s="1">
         <v>20</v>
@@ -7400,7 +7403,7 @@
         <v>7511242</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C339" s="1">
         <v>10.000000000000005</v>
@@ -7411,7 +7414,7 @@
         <v>7511251</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C340" s="1">
         <v>7.5000000000000053</v>
@@ -7422,7 +7425,7 @@
         <v>7511265</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C341" s="1">
         <v>20.000000000000014</v>
@@ -7433,7 +7436,7 @@
         <v>7511269</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C342" s="1">
         <v>20</v>
@@ -7444,7 +7447,7 @@
         <v>7511684</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C343" s="1">
         <v>20.000000000000014</v>
@@ -7455,7 +7458,7 @@
         <v>7513174</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C344" s="1">
         <v>20.000000000000011</v>
@@ -7466,7 +7469,7 @@
         <v>7513234</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C345" s="1">
         <v>20.000000000000014</v>
@@ -7477,7 +7480,7 @@
         <v>7515052</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C346" s="1">
         <v>12</v>
@@ -7488,7 +7491,7 @@
         <v>7515184</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C347" s="1">
         <v>20.000000000000014</v>
@@ -7499,7 +7502,7 @@
         <v>7515234</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C348" s="1">
         <v>20.000000000000014</v>
@@ -7510,7 +7513,7 @@
         <v>7515240</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C349" s="1">
         <v>20</v>
@@ -7521,7 +7524,7 @@
         <v>7515242</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C350" s="1">
         <v>10.000000000000005</v>
@@ -7532,7 +7535,7 @@
         <v>7515251</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C351" s="1">
         <v>7.5000000000000053</v>
@@ -7543,7 +7546,7 @@
         <v>7515265</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C352" s="1">
         <v>20.000000000000014</v>
@@ -7554,7 +7557,7 @@
         <v>7515269</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C353" s="1">
         <v>20</v>
@@ -7565,7 +7568,7 @@
         <v>7515765</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C354" s="1">
         <v>20.000000000000014</v>
@@ -7576,7 +7579,7 @@
         <v>7530228</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C355" s="1">
         <v>24</v>
@@ -7587,7 +7590,7 @@
         <v>7553175</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C356" s="1">
         <v>10.000000000000005</v>
@@ -7598,7 +7601,7 @@
         <v>7553184</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C357" s="1">
         <v>20.000000000000014</v>
@@ -7609,7 +7612,7 @@
         <v>7553203</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C358" s="1">
         <v>12.000000000000005</v>
@@ -7620,7 +7623,7 @@
         <v>7553213</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C359" s="1">
         <v>14.000000000000004</v>
@@ -7631,7 +7634,7 @@
         <v>7554117</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C360" s="1">
         <v>8.5</v>
@@ -7642,7 +7645,7 @@
         <v>7554250</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C361" s="1">
         <v>7.5</v>
@@ -7653,7 +7656,7 @@
         <v>7554251</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C362" s="1">
         <v>7.5000000000000053</v>
@@ -7664,7 +7667,7 @@
         <v>7554252</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C363" s="1">
         <v>8.5</v>
@@ -7675,7 +7678,7 @@
         <v>7556051</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C364" s="1">
         <v>6</v>
@@ -7686,7 +7689,7 @@
         <v>7556184</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C365" s="1">
         <v>20.000000000000014</v>
@@ -7697,7 +7700,7 @@
         <v>7556195</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C366" s="1">
         <v>10</v>
@@ -7708,7 +7711,7 @@
         <v>7556203</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C367" s="1">
         <v>12.000000000000005</v>
@@ -7719,7 +7722,7 @@
         <v>7556204</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C368" s="1">
         <v>12</v>
@@ -7730,7 +7733,7 @@
         <v>7556234</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C369" s="1">
         <v>20.000000000000014</v>
@@ -7741,7 +7744,7 @@
         <v>7556241</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C370" s="1">
         <v>10</v>
@@ -7752,7 +7755,7 @@
         <v>7556242</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C371" s="1">
         <v>10.000000000000005</v>
@@ -7763,7 +7766,7 @@
         <v>7556250</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C372" s="1">
         <v>7.5</v>
@@ -7774,7 +7777,7 @@
         <v>7556251</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C373" s="1">
         <v>7.5000000000000053</v>
@@ -7785,7 +7788,7 @@
         <v>7556253</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C374" s="1">
         <v>15</v>
@@ -7796,7 +7799,7 @@
         <v>7556256</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C375" s="1">
         <v>15.000000000000009</v>
@@ -7807,7 +7810,7 @@
         <v>7556265</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C376" s="1">
         <v>20.000000000000014</v>
@@ -7818,7 +7821,7 @@
         <v>7556269</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C377" s="1">
         <v>20</v>
@@ -7829,7 +7832,7 @@
         <v>7558184</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C378" s="1">
         <v>20.000000000000014</v>
@@ -7840,7 +7843,7 @@
         <v>7563250</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C379" s="1">
         <v>7.5</v>
@@ -7851,7 +7854,7 @@
         <v>7563251</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C380" s="1">
         <v>7.5000000000000053</v>
@@ -7862,7 +7865,7 @@
         <v>7577174</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C381" s="1">
         <v>20.000000000000011</v>
@@ -7873,7 +7876,7 @@
         <v>7577184</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C382" s="1">
         <v>20.000000000000014</v>
@@ -7884,7 +7887,7 @@
         <v>7577203</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C383" s="1">
         <v>12.000000000000005</v>
@@ -7895,7 +7898,7 @@
         <v>7577234</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C384" s="1">
         <v>20.000000000000014</v>
@@ -7906,7 +7909,7 @@
         <v>7577241</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C385" s="1">
         <v>10</v>
@@ -7917,7 +7920,7 @@
         <v>7577242</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C386" s="1">
         <v>10.000000000000005</v>
@@ -7928,7 +7931,7 @@
         <v>7577250</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C387" s="1">
         <v>7.5</v>
@@ -7939,7 +7942,7 @@
         <v>7577251</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C388" s="1">
         <v>7.5000000000000053</v>
@@ -7950,7 +7953,7 @@
         <v>7577253</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C389" s="1">
         <v>15</v>
@@ -7961,7 +7964,7 @@
         <v>7577256</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C390" s="1">
         <v>15.000000000000009</v>
@@ -7972,7 +7975,7 @@
         <v>7577265</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C391" s="1">
         <v>20.000000000000014</v>
@@ -7983,7 +7986,7 @@
         <v>7577269</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C392" s="1">
         <v>20</v>
@@ -7994,7 +7997,7 @@
         <v>7584165</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C393" s="1">
         <v>5</v>
@@ -8005,7 +8008,7 @@
         <v>7584175</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C394" s="1">
         <v>10.000000000000005</v>
@@ -8016,7 +8019,7 @@
         <v>7584184</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C395" s="1">
         <v>20.000000000000014</v>
@@ -8027,7 +8030,7 @@
         <v>7584185</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C396" s="1">
         <v>10.000000000000005</v>
@@ -8038,7 +8041,7 @@
         <v>7586234</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C397" s="1">
         <v>20.000000000000014</v>
@@ -8049,7 +8052,7 @@
         <v>7586234</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C398" s="1">
         <v>20.000000000000014</v>
@@ -8060,7 +8063,7 @@
         <v>7586242</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C399" s="1">
         <v>10.000000000000005</v>
@@ -8071,7 +8074,7 @@
         <v>7586242</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C400" s="1">
         <v>10.000000000000005</v>
@@ -8082,7 +8085,7 @@
         <v>7586265</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C401" s="1">
         <v>20.000000000000014</v>
@@ -8093,7 +8096,7 @@
         <v>7586265</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C402" s="1">
         <v>20.000000000000014</v>
@@ -8104,7 +8107,7 @@
         <v>7600184</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C403" s="1">
         <v>20.000000000000014</v>
@@ -8115,7 +8118,7 @@
         <v>7600203</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C404" s="1">
         <v>12.000000000000005</v>
@@ -8126,7 +8129,7 @@
         <v>7601203</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C405" s="1">
         <v>12.000000000000005</v>
@@ -8137,7 +8140,7 @@
         <v>7607184</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C406" s="1">
         <v>20.000000000000014</v>
@@ -8148,7 +8151,7 @@
         <v>7607185</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C407" s="1">
         <v>10.000000000000005</v>
@@ -8159,7 +8162,7 @@
         <v>7612184</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C408" s="1">
         <v>20.000000000000014</v>
@@ -8170,7 +8173,7 @@
         <v>7612234</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C409" s="1">
         <v>20.000000000000014</v>
@@ -8181,7 +8184,7 @@
         <v>7612242</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C410" s="1">
         <v>10.000000000000005</v>
@@ -8192,7 +8195,7 @@
         <v>7612251</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C411" s="1">
         <v>7.5000000000000053</v>
@@ -8203,7 +8206,7 @@
         <v>7612256</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C412" s="1">
         <v>15.000000000000009</v>
@@ -8214,7 +8217,7 @@
         <v>7612265</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C413" s="1">
         <v>20.000000000000014</v>
@@ -8225,7 +8228,7 @@
         <v>7612269</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C414" s="1">
         <v>20</v>
@@ -8236,7 +8239,7 @@
         <v>7615234</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C415" s="1">
         <v>20.000000000000014</v>
@@ -8247,7 +8250,7 @@
         <v>7617184</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C416" s="1">
         <v>20.000000000000014</v>
@@ -8258,7 +8261,7 @@
         <v>7617203</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C417" s="1">
         <v>12.000000000000005</v>
@@ -8269,7 +8272,7 @@
         <v>7617234</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C418" s="1">
         <v>20.000000000000014</v>
@@ -8280,7 +8283,7 @@
         <v>7617242</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C419" s="1">
         <v>10.000000000000005</v>
@@ -8291,7 +8294,7 @@
         <v>7617251</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C420" s="1">
         <v>7.5000000000000053</v>
@@ -8302,7 +8305,7 @@
         <v>7617256</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C421" s="1">
         <v>15.000000000000009</v>
@@ -8313,7 +8316,7 @@
         <v>7630256</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C422" s="1">
         <v>15.000000000000009</v>
@@ -8324,7 +8327,7 @@
         <v>7638184</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C423" s="1">
         <v>20.000000000000014</v>
@@ -8335,7 +8338,7 @@
         <v>7638234</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C424" s="1">
         <v>20.000000000000014</v>
@@ -8346,7 +8349,7 @@
         <v>7643203</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C425" s="1">
         <v>12.000000000000005</v>
@@ -8357,7 +8360,7 @@
         <v>7651184</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C426" s="1">
         <v>20.000000000000014</v>
@@ -8368,7 +8371,7 @@
         <v>7651265</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C427" s="1">
         <v>20.000000000000014</v>
@@ -8379,7 +8382,7 @@
         <v>7651265</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C428" s="1">
         <v>20.000000000000014</v>
@@ -8390,7 +8393,7 @@
         <v>7652265</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C429" s="1">
         <v>20.000000000000014</v>
@@ -8401,7 +8404,7 @@
         <v>7660222</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C430" s="1">
         <v>16.000000000000011</v>
@@ -8412,7 +8415,7 @@
         <v>7670184</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C431" s="1">
         <v>20.000000000000014</v>
@@ -8423,7 +8426,7 @@
         <v>7670213</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C432" s="1">
         <v>14.000000000000004</v>
@@ -8434,7 +8437,7 @@
         <v>7670234</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C433" s="1">
         <v>20.000000000000014</v>
@@ -8445,7 +8448,7 @@
         <v>7677184</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C434" s="1">
         <v>20.000000000000014</v>
@@ -8456,7 +8459,7 @@
         <v>7677241</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C435" s="1">
         <v>10</v>
@@ -8467,7 +8470,7 @@
         <v>7677242</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C436" s="1">
         <v>10.000000000000005</v>
@@ -8478,7 +8481,7 @@
         <v>7677253</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C437" s="1">
         <v>15</v>
@@ -8489,7 +8492,7 @@
         <v>7677256</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C438" s="1">
         <v>15.000000000000009</v>
@@ -8500,7 +8503,7 @@
         <v>7677282</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C439" s="1">
         <v>11</v>
@@ -8511,7 +8514,7 @@
         <v>7677283</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C440" s="1">
         <v>16</v>
@@ -8522,7 +8525,7 @@
         <v>7687234</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C441" s="1">
         <v>20.000000000000014</v>
@@ -8533,7 +8536,7 @@
         <v>7687265</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C442" s="1">
         <v>20.000000000000014</v>
@@ -8544,7 +8547,7 @@
         <v>7688184</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C443" s="1">
         <v>20.000000000000014</v>
@@ -8555,7 +8558,7 @@
         <v>7688203</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C444" s="1">
         <v>12.000000000000005</v>
@@ -8566,7 +8569,7 @@
         <v>7688213</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C445" s="1">
         <v>14.000000000000004</v>
@@ -8577,7 +8580,7 @@
         <v>7690134</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C446" s="1">
         <v>4.1000000000000005</v>
@@ -8588,7 +8591,7 @@
         <v>7690135</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C447" s="1">
         <v>16.400000000000002</v>
@@ -8599,7 +8602,7 @@
         <v>7690184</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C448" s="1">
         <v>20.000000000000014</v>
@@ -8610,7 +8613,7 @@
         <v>7690234</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C449" s="1">
         <v>20.000000000000014</v>
@@ -8621,7 +8624,7 @@
         <v>7690290</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C450" s="1">
         <v>15</v>
@@ -8632,7 +8635,7 @@
         <v>7690292</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C451" s="1">
         <v>14</v>
@@ -8643,7 +8646,7 @@
         <v>7690295</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C452" s="1">
         <v>21</v>
@@ -8654,7 +8657,7 @@
         <v>7693251</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C453" s="1">
         <v>7.5000000000000053</v>
@@ -8665,7 +8668,7 @@
         <v>7694184</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C454" s="1">
         <v>20.000000000000014</v>
@@ -8676,7 +8679,7 @@
         <v>7694197</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C455" s="1">
         <v>20</v>
@@ -8687,7 +8690,7 @@
         <v>7694251</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C456" s="1">
         <v>7.5000000000000053</v>
@@ -8698,7 +8701,7 @@
         <v>7701303</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C457" s="1">
         <v>9.9999999999999982</v>
@@ -8709,7 +8712,7 @@
         <v>7701313</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C458" s="1">
         <v>10</v>
@@ -8720,7 +8723,7 @@
         <v>7701327</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C459" s="1">
         <v>12.000000000000004</v>
@@ -8731,7 +8734,7 @@
         <v>7701337</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C460" s="1">
         <v>11.999999999999998</v>
@@ -8742,7 +8745,7 @@
         <v>7701341</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C461" s="1">
         <v>20.000000000000011</v>
@@ -8753,7 +8756,7 @@
         <v>7703313</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C462" s="1">
         <v>10</v>
@@ -8764,7 +8767,7 @@
         <v>7705303</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C463" s="1">
         <v>9.9999999999999982</v>
@@ -8775,7 +8778,7 @@
         <v>7705308</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C464" s="1">
         <v>12</v>
@@ -8786,7 +8789,7 @@
         <v>7705313</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C465" s="1">
         <v>10</v>
@@ -8797,7 +8800,7 @@
         <v>7705327</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C466" s="1">
         <v>12.000000000000004</v>
@@ -8808,7 +8811,7 @@
         <v>7705337</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C467" s="1">
         <v>11.999999999999998</v>
@@ -8819,7 +8822,7 @@
         <v>7705339</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C468" s="1">
         <v>5</v>
@@ -8830,7 +8833,7 @@
         <v>7705340</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C469" s="1">
         <v>10</v>
@@ -8841,7 +8844,7 @@
         <v>7705341</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C470" s="1">
         <v>20.000000000000011</v>
@@ -8852,7 +8855,7 @@
         <v>7705362</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C471" s="1">
         <v>10</v>
@@ -8863,7 +8866,7 @@
         <v>7705364</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C472" s="1">
         <v>10</v>
@@ -8874,7 +8877,7 @@
         <v>7705368</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C473" s="1">
         <v>12</v>
@@ -8885,7 +8888,7 @@
         <v>7705369</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C474" s="1">
         <v>5</v>
@@ -8896,7 +8899,7 @@
         <v>7705373</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C475" s="1">
         <v>20</v>
@@ -8907,7 +8910,7 @@
         <v>7705803</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C476" s="1">
         <v>9.9999999999999982</v>
@@ -8918,7 +8921,7 @@
         <v>7722341</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C477" s="1">
         <v>20.000000000000011</v>
@@ -8929,7 +8932,7 @@
         <v>7723341</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C478" s="1">
         <v>20.000000000000011</v>
@@ -8940,7 +8943,7 @@
         <v>7727303</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C479" s="1">
         <v>9.9999999999999982</v>
@@ -8951,7 +8954,7 @@
         <v>7727312</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C480" s="1">
         <v>20</v>
@@ -8962,7 +8965,7 @@
         <v>7727313</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C481" s="1">
         <v>10</v>
@@ -8973,7 +8976,7 @@
         <v>7727327</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C482" s="1">
         <v>12.000000000000004</v>
@@ -8984,7 +8987,7 @@
         <v>7727337</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C483" s="1">
         <v>11.999999999999998</v>
@@ -8995,7 +8998,7 @@
         <v>7727341</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C484" s="1">
         <v>20.000000000000011</v>
@@ -9006,7 +9009,7 @@
         <v>7727343</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C485" s="1">
         <v>7</v>
@@ -9017,7 +9020,7 @@
         <v>7727353</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C486" s="1">
         <v>20</v>
@@ -9028,7 +9031,7 @@
         <v>7727362</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C487" s="1">
         <v>10</v>
@@ -9039,7 +9042,7 @@
         <v>7727364</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C488" s="1">
         <v>10</v>
@@ -9050,7 +9053,7 @@
         <v>7727368</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C489" s="1">
         <v>12</v>
@@ -9061,7 +9064,7 @@
         <v>7727371</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C490" s="1">
         <v>7</v>
@@ -9072,7 +9075,7 @@
         <v>7727373</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C491" s="1">
         <v>20</v>
@@ -9083,7 +9086,7 @@
         <v>7742341</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C492" s="1">
         <v>20.000000000000011</v>
@@ -9094,7 +9097,7 @@
         <v>7831303</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C493" s="1">
         <v>9.9999999999999982</v>
@@ -9105,7 +9108,7 @@
         <v>7832303</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C494" s="1">
         <v>9.9999999999999982</v>
@@ -9116,7 +9119,7 @@
         <v>7849303</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C495" s="1">
         <v>9.9999999999999982</v>
@@ -9127,7 +9130,7 @@
         <v>7849313</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C496" s="1">
         <v>10</v>
@@ -9138,7 +9141,7 @@
         <v>7849327</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C497" s="1">
         <v>12.000000000000004</v>
@@ -9149,7 +9152,7 @@
         <v>7849337</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C498" s="1">
         <v>11.999999999999998</v>
@@ -9160,7 +9163,7 @@
         <v>7849339</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C499" s="1">
         <v>5</v>
@@ -9171,7 +9174,7 @@
         <v>7849340</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C500" s="1">
         <v>10</v>
@@ -9182,7 +9185,7 @@
         <v>7849341</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C501" s="1">
         <v>20.000000000000011</v>
@@ -9193,7 +9196,7 @@
         <v>7849343</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C502" s="1">
         <v>7</v>
@@ -9204,7 +9207,7 @@
         <v>7849344</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C503" s="1">
         <v>10</v>
@@ -9215,7 +9218,7 @@
         <v>7849362</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C504" s="1">
         <v>10</v>
@@ -9226,7 +9229,7 @@
         <v>7849364</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C505" s="1">
         <v>10</v>
@@ -9237,7 +9240,7 @@
         <v>7849368</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C506" s="1">
         <v>12</v>
@@ -9248,7 +9251,7 @@
         <v>7849369</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C507" s="1">
         <v>5</v>
@@ -9259,7 +9262,7 @@
         <v>7849373</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C508" s="1">
         <v>20</v>
@@ -9270,7 +9273,7 @@
         <v>7850341</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C509" s="1">
         <v>20.000000000000011</v>
@@ -9281,7 +9284,7 @@
         <v>7856341</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C510" s="1">
         <v>20.000000000000011</v>
@@ -9292,7 +9295,7 @@
         <v>7886339</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C511" s="1">
         <v>5</v>
@@ -9303,7 +9306,7 @@
         <v>7886341</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C512" s="1">
         <v>20.000000000000011</v>
@@ -9314,7 +9317,7 @@
         <v>7903303</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C513" s="1">
         <v>9.9999999999999982</v>
@@ -9325,7 +9328,7 @@
         <v>7903313</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C514" s="1">
         <v>10</v>
@@ -9336,7 +9339,7 @@
         <v>7903327</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C515" s="1">
         <v>12.000000000000004</v>
@@ -9347,7 +9350,7 @@
         <v>7903337</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C516" s="1">
         <v>11.999999999999998</v>
@@ -9358,7 +9361,7 @@
         <v>7903339</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C517" s="1">
         <v>5</v>
@@ -9369,7 +9372,7 @@
         <v>7903341</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C518" s="1">
         <v>20.000000000000011</v>
@@ -9380,7 +9383,7 @@
         <v>7903343</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C519" s="1">
         <v>7</v>
@@ -9391,7 +9394,7 @@
         <v>7903344</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C520" s="1">
         <v>10</v>
@@ -9402,7 +9405,7 @@
         <v>8168341</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C521" s="1">
         <v>20.000000000000011</v>
@@ -9413,7 +9416,7 @@
         <v>2586184</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C522" s="1">
         <v>20.000000000000014</v>
@@ -9424,7 +9427,7 @@
         <v>7267234</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C523" s="1">
         <v>20.000000000000014</v>
@@ -9435,7 +9438,7 @@
         <v>7470184</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C524" s="1">
         <v>20.000000000000014</v>
@@ -9446,7 +9449,7 @@
         <v>7434184</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C525" s="1">
         <v>20.000000000000014</v>
@@ -9457,7 +9460,7 @@
         <v>2972184</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C526" s="1">
         <v>20.000000000000014</v>
@@ -9468,7 +9471,7 @@
         <v>2885036</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C527" s="1">
         <v>12</v>
@@ -9479,7 +9482,7 @@
         <v>7275185</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C528" s="1">
         <v>10.000000000000005</v>
@@ -9490,7 +9493,7 @@
         <v>3077184</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C529" s="1">
         <v>20.000000000000014</v>
@@ -9501,7 +9504,7 @@
         <v>1301288</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C530" s="1">
         <v>26</v>
@@ -9512,7 +9515,7 @@
         <v>1301401</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C531" s="1">
         <v>210</v>
@@ -9523,7 +9526,7 @@
         <v>1303401</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C532" s="1">
         <v>210</v>
@@ -9534,7 +9537,7 @@
         <v>1304401</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C533" s="1">
         <v>210</v>
@@ -9545,7 +9548,7 @@
         <v>1403401</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C534" s="1">
         <v>210</v>
@@ -9556,7 +9559,7 @@
         <v>1404271</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C535" s="1">
         <v>50</v>
@@ -9567,7 +9570,7 @@
         <v>1404401</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C536" s="1">
         <v>210</v>
@@ -9578,7 +9581,7 @@
         <v>1404402</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C537" s="1">
         <v>208</v>
@@ -9589,7 +9592,7 @@
         <v>1405401</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C538" s="1">
         <v>210</v>
@@ -9600,7 +9603,7 @@
         <v>1408401</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C539" s="1">
         <v>210</v>
@@ -9611,7 +9614,7 @@
         <v>1412401</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C540" s="1">
         <v>210</v>
@@ -9622,7 +9625,7 @@
         <v>1413401</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C541" s="1">
         <v>210</v>
@@ -9633,7 +9636,7 @@
         <v>1418401</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C542" s="1">
         <v>210</v>
@@ -9644,7 +9647,7 @@
         <v>1513401</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C543" s="1">
         <v>210</v>
@@ -9655,7 +9658,7 @@
         <v>1516401</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C544" s="1">
         <v>210</v>
@@ -9666,7 +9669,7 @@
         <v>2478401</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C545" s="1">
         <v>210</v>
@@ -9677,7 +9680,7 @@
         <v>2479401</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C546" s="1">
         <v>210</v>
@@ -9688,7 +9691,7 @@
         <v>2487401</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C547" s="1">
         <v>210</v>
@@ -9699,7 +9702,7 @@
         <v>2488401</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C548" s="1">
         <v>210</v>
@@ -9710,7 +9713,7 @@
         <v>2499401</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C549" s="1">
         <v>210</v>
@@ -9721,7 +9724,7 @@
         <v>2501401</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C550" s="1">
         <v>210</v>
@@ -9732,7 +9735,7 @@
         <v>2502288</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C551" s="1">
         <v>26</v>
@@ -9743,7 +9746,7 @@
         <v>2502401</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C552" s="1">
         <v>210</v>
@@ -9754,7 +9757,7 @@
         <v>2503401</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C553" s="1">
         <v>210</v>
@@ -9765,7 +9768,7 @@
         <v>2505401</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C554" s="1">
         <v>210</v>
@@ -9776,7 +9779,7 @@
         <v>2508401</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C555" s="1">
         <v>210</v>
@@ -9787,7 +9790,7 @@
         <v>2518401</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C556" s="1">
         <v>210</v>
@@ -9798,7 +9801,7 @@
         <v>2519401</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C557" s="1">
         <v>210</v>
@@ -9809,7 +9812,7 @@
         <v>2523401</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C558" s="1">
         <v>210</v>
@@ -9820,7 +9823,7 @@
         <v>2530401</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C559" s="1">
         <v>210</v>
@@ -9831,7 +9834,7 @@
         <v>2532401</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C560" s="1">
         <v>210</v>
@@ -9842,7 +9845,7 @@
         <v>2533401</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C561" s="1">
         <v>210</v>
@@ -9853,7 +9856,7 @@
         <v>2534401</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C562" s="1">
         <v>210</v>
@@ -9864,7 +9867,7 @@
         <v>2540401</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C563" s="1">
         <v>210</v>
@@ -9875,7 +9878,7 @@
         <v>2546401</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C564" s="1">
         <v>210</v>
@@ -9886,7 +9889,7 @@
         <v>2548401</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C565" s="1">
         <v>210</v>
@@ -9897,7 +9900,7 @@
         <v>2556401</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C566" s="1">
         <v>210</v>
@@ -9908,7 +9911,7 @@
         <v>2557401</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C567" s="1">
         <v>210</v>
@@ -9919,7 +9922,7 @@
         <v>2558401</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C568" s="1">
         <v>210</v>
@@ -9930,7 +9933,7 @@
         <v>2559401</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C569" s="1">
         <v>210</v>
@@ -9941,7 +9944,7 @@
         <v>2567401</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C570" s="1">
         <v>210</v>
@@ -9952,7 +9955,7 @@
         <v>2568401</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C571" s="1">
         <v>210</v>
@@ -9963,7 +9966,7 @@
         <v>2569401</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C572" s="1">
         <v>210</v>
@@ -9974,7 +9977,7 @@
         <v>2570401</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C573" s="1">
         <v>210</v>
@@ -9985,7 +9988,7 @@
         <v>2571401</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C574" s="1">
         <v>210</v>
@@ -9996,7 +9999,7 @@
         <v>2572401</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C575" s="1">
         <v>210</v>
@@ -10007,7 +10010,7 @@
         <v>2573401</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C576" s="1">
         <v>210</v>
@@ -10018,7 +10021,7 @@
         <v>2574401</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C577" s="1">
         <v>210</v>
@@ -10029,7 +10032,7 @@
         <v>2575401</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C578" s="1">
         <v>210</v>
@@ -10040,7 +10043,7 @@
         <v>2576401</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C579" s="1">
         <v>210</v>
@@ -10051,7 +10054,7 @@
         <v>2602401</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C580" s="1">
         <v>210</v>
@@ -10062,7 +10065,7 @@
         <v>2603401</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C581" s="1">
         <v>210</v>
@@ -10073,7 +10076,7 @@
         <v>2613401</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C582" s="1">
         <v>210</v>
@@ -10084,7 +10087,7 @@
         <v>2617401</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C583" s="1">
         <v>210</v>
@@ -10095,7 +10098,7 @@
         <v>2618401</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C584" s="1">
         <v>210</v>
@@ -10106,7 +10109,7 @@
         <v>2621401</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C585" s="1">
         <v>210</v>
@@ -10117,7 +10120,7 @@
         <v>2705401</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C586" s="1">
         <v>210</v>
@@ -10128,7 +10131,7 @@
         <v>2706401</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C587" s="1">
         <v>210</v>
@@ -10139,7 +10142,7 @@
         <v>2887401</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C588" s="1">
         <v>210</v>
@@ -10150,7 +10153,7 @@
         <v>2888401</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C589" s="1">
         <v>210</v>
@@ -10161,7 +10164,7 @@
         <v>2896401</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C590" s="1">
         <v>210</v>
@@ -10172,7 +10175,7 @@
         <v>2900401</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C591" s="1">
         <v>210</v>
@@ -10183,7 +10186,7 @@
         <v>2900403</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C592" s="1">
         <v>210</v>
@@ -10194,7 +10197,7 @@
         <v>2909401</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C593" s="1">
         <v>210</v>
@@ -10205,7 +10208,7 @@
         <v>2918401</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C594" s="1">
         <v>210</v>
@@ -10216,7 +10219,7 @@
         <v>2924271</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C595" s="1">
         <v>50</v>
@@ -10227,7 +10230,7 @@
         <v>2924284</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C596" s="1">
         <v>50</v>
@@ -10238,7 +10241,7 @@
         <v>2924288</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C597" s="1">
         <v>26</v>
@@ -10249,7 +10252,7 @@
         <v>2924401</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C598" s="1">
         <v>210</v>
@@ -10260,7 +10263,7 @@
         <v>2927401</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C599" s="1">
         <v>210</v>
@@ -10271,7 +10274,7 @@
         <v>2929401</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C600" s="1">
         <v>210</v>
@@ -10282,7 +10285,7 @@
         <v>2933401</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C601" s="1">
         <v>210</v>
@@ -10293,7 +10296,7 @@
         <v>2936401</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C602" s="1">
         <v>210</v>
@@ -10304,7 +10307,7 @@
         <v>2953401</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C603" s="1">
         <v>210</v>
@@ -10315,7 +10318,7 @@
         <v>2959288</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C604" s="1">
         <v>26</v>
@@ -10326,7 +10329,7 @@
         <v>2959402</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C605" s="1">
         <v>208</v>
@@ -10337,7 +10340,7 @@
         <v>2960401</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C606" s="1">
         <v>210</v>
@@ -10348,7 +10351,7 @@
         <v>2961401</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C607" s="1">
         <v>210</v>
@@ -10359,7 +10362,7 @@
         <v>2962401</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C608" s="1">
         <v>210</v>
@@ -10370,7 +10373,7 @@
         <v>2964401</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C609" s="1">
         <v>210</v>
@@ -10381,7 +10384,7 @@
         <v>2965401</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C610" s="1">
         <v>210</v>
@@ -10392,7 +10395,7 @@
         <v>2966401</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C611" s="1">
         <v>210</v>
@@ -10403,7 +10406,7 @@
         <v>2967401</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C612" s="1">
         <v>210</v>
@@ -10414,7 +10417,7 @@
         <v>2967402</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C613" s="1">
         <v>208</v>
@@ -10425,7 +10428,7 @@
         <v>2968401</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C614" s="1">
         <v>210</v>
@@ -10436,7 +10439,7 @@
         <v>2969401</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C615" s="1">
         <v>210</v>
@@ -10447,7 +10450,7 @@
         <v>2970401</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C616" s="1">
         <v>210</v>
@@ -10458,7 +10461,7 @@
         <v>2971401</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C617" s="1">
         <v>210</v>
@@ -10469,7 +10472,7 @@
         <v>2995401</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C618" s="1">
         <v>210</v>
@@ -10480,7 +10483,7 @@
         <v>2998401</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C619" s="1">
         <v>210</v>
@@ -10491,7 +10494,7 @@
         <v>2999401</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C620" s="1">
         <v>210</v>
@@ -10502,7 +10505,7 @@
         <v>3001288</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C621" s="1">
         <v>26</v>
@@ -10513,7 +10516,7 @@
         <v>3001401</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C622" s="1">
         <v>210</v>
@@ -10524,7 +10527,7 @@
         <v>3001403</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C623" s="1">
         <v>210</v>
@@ -10535,7 +10538,7 @@
         <v>3002288</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C624" s="1">
         <v>26</v>
@@ -10546,7 +10549,7 @@
         <v>3002401</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C625" s="1">
         <v>210</v>
@@ -10557,7 +10560,7 @@
         <v>3002403</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C626" s="1">
         <v>210</v>
@@ -10568,7 +10571,7 @@
         <v>3003401</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C627" s="1">
         <v>210</v>
@@ -10579,7 +10582,7 @@
         <v>3006271</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C628" s="1">
         <v>50</v>
@@ -10590,7 +10593,7 @@
         <v>3006284</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C629" s="1">
         <v>50</v>
@@ -10601,7 +10604,7 @@
         <v>3006288</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C630" s="1">
         <v>26</v>
@@ -10612,7 +10615,7 @@
         <v>3006401</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C631" s="1">
         <v>210</v>
@@ -10623,7 +10626,7 @@
         <v>3006403</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C632" s="1">
         <v>210</v>
@@ -10634,7 +10637,7 @@
         <v>3007401</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C633" s="1">
         <v>210</v>
@@ -10645,7 +10648,7 @@
         <v>3007403</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C634" s="1">
         <v>210</v>
@@ -10656,7 +10659,7 @@
         <v>3008401</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C635" s="1">
         <v>210</v>
@@ -10667,7 +10670,7 @@
         <v>3015401</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C636" s="1">
         <v>210</v>
@@ -10678,7 +10681,7 @@
         <v>3016401</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C637" s="1">
         <v>210</v>
@@ -10689,7 +10692,7 @@
         <v>3017401</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C638" s="1">
         <v>210</v>
@@ -10700,7 +10703,7 @@
         <v>3018401</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C639" s="1">
         <v>210</v>
@@ -10711,7 +10714,7 @@
         <v>3019401</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C640" s="1">
         <v>210</v>
@@ -10722,7 +10725,7 @@
         <v>3019403</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C641" s="1">
         <v>210</v>
@@ -10733,7 +10736,7 @@
         <v>3020271</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C642" s="1">
         <v>50</v>
@@ -10744,7 +10747,7 @@
         <v>3020288</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C643" s="1">
         <v>26</v>
@@ -10755,7 +10758,7 @@
         <v>3020401</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C644" s="1">
         <v>210</v>
@@ -10766,7 +10769,7 @@
         <v>3021401</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C645" s="1">
         <v>210</v>
@@ -10777,7 +10780,7 @@
         <v>3022401</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C646" s="1">
         <v>210</v>
@@ -10788,7 +10791,7 @@
         <v>3023401</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C647" s="1">
         <v>210</v>
@@ -10799,7 +10802,7 @@
         <v>3023403</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C648" s="1">
         <v>210</v>
@@ -10810,7 +10813,7 @@
         <v>3026401</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C649" s="1">
         <v>210</v>
@@ -10832,7 +10835,7 @@
         <v>3052271</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C651" s="1">
         <v>50</v>
@@ -10843,7 +10846,7 @@
         <v>3052401</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C652" s="1">
         <v>210</v>
@@ -10854,7 +10857,7 @@
         <v>3053401</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C653" s="1">
         <v>210</v>
@@ -10865,7 +10868,7 @@
         <v>3054401</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C654" s="1">
         <v>210</v>
@@ -10876,7 +10879,7 @@
         <v>3055271</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C655" s="1">
         <v>50</v>
@@ -10887,7 +10890,7 @@
         <v>3055401</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C656" s="1">
         <v>210</v>
@@ -10898,7 +10901,7 @@
         <v>3056271</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C657" s="1">
         <v>50</v>
@@ -10909,7 +10912,7 @@
         <v>3056401</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C658" s="1">
         <v>210</v>
@@ -10920,7 +10923,7 @@
         <v>3057401</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C659" s="1">
         <v>210</v>
@@ -10931,7 +10934,7 @@
         <v>3058401</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C660" s="1">
         <v>210</v>
@@ -10942,7 +10945,7 @@
         <v>3059401</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C661" s="1">
         <v>210</v>
@@ -10953,7 +10956,7 @@
         <v>3062401</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C662" s="1">
         <v>210</v>
@@ -10964,7 +10967,7 @@
         <v>3064288</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C663" s="1">
         <v>26</v>
@@ -10975,7 +10978,7 @@
         <v>3064401</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C664" s="1">
         <v>210</v>
@@ -10986,7 +10989,7 @@
         <v>3065401</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C665" s="1">
         <v>210</v>
@@ -10997,7 +11000,7 @@
         <v>3066401</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C666" s="1">
         <v>210</v>
@@ -11008,7 +11011,7 @@
         <v>3075401</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C667" s="1">
         <v>210</v>
@@ -11019,7 +11022,7 @@
         <v>3081401</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C668" s="1">
         <v>210</v>
@@ -11030,7 +11033,7 @@
         <v>3081403</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C669" s="1">
         <v>210</v>
@@ -11041,7 +11044,7 @@
         <v>3082401</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C670" s="1">
         <v>210</v>
@@ -11052,7 +11055,7 @@
         <v>3082403</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C671" s="1">
         <v>210</v>
@@ -11063,7 +11066,7 @@
         <v>3083401</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C672" s="1">
         <v>210</v>
@@ -11074,7 +11077,7 @@
         <v>3084271</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C673" s="1">
         <v>50</v>
@@ -11085,7 +11088,7 @@
         <v>3084288</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C674" s="1">
         <v>26</v>
@@ -11096,7 +11099,7 @@
         <v>3084401</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C675" s="1">
         <v>210</v>
@@ -11107,7 +11110,7 @@
         <v>3084403</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C676" s="1">
         <v>210</v>
@@ -11118,7 +11121,7 @@
         <v>3086401</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C677" s="1">
         <v>210</v>
@@ -11129,7 +11132,7 @@
         <v>3089401</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C678" s="1">
         <v>210</v>
@@ -11140,7 +11143,7 @@
         <v>3098401</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C679" s="1">
         <v>210</v>
@@ -11151,7 +11154,7 @@
         <v>3106401</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C680" s="1">
         <v>210</v>
@@ -11162,7 +11165,7 @@
         <v>3107401</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C681" s="1">
         <v>210</v>
@@ -11173,7 +11176,7 @@
         <v>3108401</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C682" s="1">
         <v>210</v>
@@ -11184,7 +11187,7 @@
         <v>3115401</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C683" s="1">
         <v>210</v>
@@ -11195,7 +11198,7 @@
         <v>3116401</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C684" s="1">
         <v>210</v>
@@ -11206,7 +11209,7 @@
         <v>3120401</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C685" s="1">
         <v>210</v>
@@ -11217,7 +11220,7 @@
         <v>3120403</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C686" s="1">
         <v>210</v>
@@ -11228,7 +11231,7 @@
         <v>3121401</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C687" s="1">
         <v>210</v>
@@ -11239,7 +11242,7 @@
         <v>3121403</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C688" s="1">
         <v>210</v>
@@ -11250,7 +11253,7 @@
         <v>3122401</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C689" s="1">
         <v>210</v>
@@ -11261,7 +11264,7 @@
         <v>3122403</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C690" s="1">
         <v>210</v>
@@ -11272,7 +11275,7 @@
         <v>3124401</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C691" s="1">
         <v>210</v>
@@ -11283,7 +11286,7 @@
         <v>3124403</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C692" s="1">
         <v>210</v>
@@ -11294,7 +11297,7 @@
         <v>3125401</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C693" s="1">
         <v>210</v>
@@ -11305,7 +11308,7 @@
         <v>3125403</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C694" s="1">
         <v>210</v>
@@ -11316,7 +11319,7 @@
         <v>3132403</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C695" s="1">
         <v>210</v>
@@ -11327,7 +11330,7 @@
         <v>3133401</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C696" s="1">
         <v>210</v>
@@ -11338,7 +11341,7 @@
         <v>3133403</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C697" s="1">
         <v>210</v>
@@ -11349,7 +11352,7 @@
         <v>3134403</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C698" s="1">
         <v>210</v>
@@ -11360,7 +11363,7 @@
         <v>3136403</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C699" s="1">
         <v>210</v>
@@ -11371,7 +11374,7 @@
         <v>3137401</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C700" s="1">
         <v>210</v>
@@ -11382,7 +11385,7 @@
         <v>3139401</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C701" s="1">
         <v>210</v>
@@ -11393,7 +11396,7 @@
         <v>3139403</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C702" s="1">
         <v>210</v>
@@ -11404,7 +11407,7 @@
         <v>3140401</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C703" s="1">
         <v>210</v>
@@ -11415,7 +11418,7 @@
         <v>3141401</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C704" s="1">
         <v>210</v>
@@ -11426,7 +11429,7 @@
         <v>3141403</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C705" s="1">
         <v>210</v>
@@ -11437,7 +11440,7 @@
         <v>3142401</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C706" s="1">
         <v>210</v>
@@ -11448,7 +11451,7 @@
         <v>3142403</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C707" s="1">
         <v>210</v>
@@ -11459,7 +11462,7 @@
         <v>3146403</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C708" s="1">
         <v>210</v>
@@ -11470,7 +11473,7 @@
         <v>3147403</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C709" s="1">
         <v>210</v>
@@ -11481,7 +11484,7 @@
         <v>3148401</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C710" s="1">
         <v>210</v>
@@ -11492,7 +11495,7 @@
         <v>3149401</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C711" s="1">
         <v>210</v>
@@ -11503,7 +11506,7 @@
         <v>3161401</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C712" s="1">
         <v>210</v>
@@ -11514,7 +11517,7 @@
         <v>3233401</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C713" s="1">
         <v>210</v>
@@ -11525,7 +11528,7 @@
         <v>3246401</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C714" s="1">
         <v>210</v>
@@ -11536,7 +11539,7 @@
         <v>3249401</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C715" s="1">
         <v>210</v>
@@ -11547,7 +11550,7 @@
         <v>3250401</v>
       </c>
       <c r="B716" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C716" s="1">
         <v>210</v>
@@ -11558,7 +11561,7 @@
         <v>3302401</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C717" s="1">
         <v>210</v>
@@ -11569,7 +11572,7 @@
         <v>3304401</v>
       </c>
       <c r="B718" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C718" s="1">
         <v>210</v>
@@ -11580,7 +11583,7 @@
         <v>3402401</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C719" s="1">
         <v>210</v>
@@ -11591,7 +11594,7 @@
         <v>3404401</v>
       </c>
       <c r="B720" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C720" s="1">
         <v>210</v>
@@ -11602,7 +11605,7 @@
         <v>3411401</v>
       </c>
       <c r="B721" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C721" s="1">
         <v>210</v>
@@ -11613,7 +11616,7 @@
         <v>3413288</v>
       </c>
       <c r="B722" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C722" s="1">
         <v>26</v>
@@ -11624,7 +11627,7 @@
         <v>3415453</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C723" s="1">
         <v>175</v>
@@ -11635,7 +11638,7 @@
         <v>3501401</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C724" s="1">
         <v>210</v>
@@ -11646,7 +11649,7 @@
         <v>3502401</v>
       </c>
       <c r="B725" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C725" s="1">
         <v>210</v>
@@ -11657,7 +11660,7 @@
         <v>3512401</v>
       </c>
       <c r="B726" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C726" s="1">
         <v>210</v>
@@ -11668,7 +11671,7 @@
         <v>3513401</v>
       </c>
       <c r="B727" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C727" s="1">
         <v>210</v>
@@ -11679,7 +11682,7 @@
         <v>3514401</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C728" s="1">
         <v>210</v>
@@ -11690,7 +11693,7 @@
         <v>3516401</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C729" s="1">
         <v>210</v>
@@ -11701,7 +11704,7 @@
         <v>3519401</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C730" s="1">
         <v>210</v>
@@ -11712,7 +11715,7 @@
         <v>3520401</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C731" s="1">
         <v>210</v>
@@ -11723,7 +11726,7 @@
         <v>3523401</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C732" s="1">
         <v>210</v>
@@ -11734,7 +11737,7 @@
         <v>3524401</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C733" s="1">
         <v>210</v>
@@ -11745,7 +11748,7 @@
         <v>3525401</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C734" s="1">
         <v>210</v>
@@ -11756,7 +11759,7 @@
         <v>3534401</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C735" s="1">
         <v>210</v>
@@ -11767,7 +11770,7 @@
         <v>3551401</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C736" s="1">
         <v>210</v>
@@ -11778,7 +11781,7 @@
         <v>3588401</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C737" s="1">
         <v>210</v>
@@ -11789,7 +11792,7 @@
         <v>3589401</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C738" s="1">
         <v>210</v>
@@ -11800,7 +11803,7 @@
         <v>3590401</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C739" s="1">
         <v>210</v>
@@ -11811,7 +11814,7 @@
         <v>3591401</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C740" s="1">
         <v>210</v>
@@ -11822,7 +11825,7 @@
         <v>3592401</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C741" s="1">
         <v>210</v>
@@ -11833,7 +11836,7 @@
         <v>3596401</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C742" s="1">
         <v>210</v>
@@ -11844,7 +11847,7 @@
         <v>3611401</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C743" s="1">
         <v>210</v>
@@ -11855,7 +11858,7 @@
         <v>3612401</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C744" s="1">
         <v>210</v>
@@ -11866,7 +11869,7 @@
         <v>3614271</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C745" s="1">
         <v>50</v>
@@ -11877,7 +11880,7 @@
         <v>3614288</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C746" s="1">
         <v>26</v>
@@ -11888,7 +11891,7 @@
         <v>3614401</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C747" s="1">
         <v>210</v>
@@ -11899,7 +11902,7 @@
         <v>3615401</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C748" s="1">
         <v>210</v>
@@ -11910,7 +11913,7 @@
         <v>3616401</v>
       </c>
       <c r="B749" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C749" s="1">
         <v>210</v>
@@ -11921,7 +11924,7 @@
         <v>3617401</v>
       </c>
       <c r="B750" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C750" s="1">
         <v>210</v>
@@ -11932,7 +11935,7 @@
         <v>3618401</v>
       </c>
       <c r="B751" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C751" s="1">
         <v>210</v>
@@ -11943,7 +11946,7 @@
         <v>3619271</v>
       </c>
       <c r="B752" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C752" s="1">
         <v>50</v>
@@ -11954,7 +11957,7 @@
         <v>3619401</v>
       </c>
       <c r="B753" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C753" s="1">
         <v>210</v>
@@ -11965,7 +11968,7 @@
         <v>3622401</v>
       </c>
       <c r="B754" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C754" s="1">
         <v>210</v>
@@ -11976,7 +11979,7 @@
         <v>3626401</v>
       </c>
       <c r="B755" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C755" s="1">
         <v>210</v>
@@ -11987,7 +11990,7 @@
         <v>3628401</v>
       </c>
       <c r="B756" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C756" s="1">
         <v>210</v>
@@ -11998,7 +12001,7 @@
         <v>3632401</v>
       </c>
       <c r="B757" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C757" s="1">
         <v>210</v>
@@ -12009,7 +12012,7 @@
         <v>3634401</v>
       </c>
       <c r="B758" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C758" s="1">
         <v>210</v>
@@ -12020,7 +12023,7 @@
         <v>3635401</v>
       </c>
       <c r="B759" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C759" s="1">
         <v>210</v>
@@ -12031,7 +12034,7 @@
         <v>3645401</v>
       </c>
       <c r="B760" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C760" s="1">
         <v>210</v>
@@ -12042,7 +12045,7 @@
         <v>3647401</v>
       </c>
       <c r="B761" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C761" s="1">
         <v>210</v>
@@ -12053,7 +12056,7 @@
         <v>3648401</v>
       </c>
       <c r="B762" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C762" s="1">
         <v>210</v>
@@ -12064,7 +12067,7 @@
         <v>3649401</v>
       </c>
       <c r="B763" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C763" s="1">
         <v>210</v>
@@ -12075,7 +12078,7 @@
         <v>3650401</v>
       </c>
       <c r="B764" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C764" s="1">
         <v>210</v>
@@ -12086,7 +12089,7 @@
         <v>3664401</v>
       </c>
       <c r="B765" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C765" s="1">
         <v>210</v>
@@ -12097,7 +12100,7 @@
         <v>3681403</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C766" s="1">
         <v>210</v>
@@ -12108,7 +12111,7 @@
         <v>3688401</v>
       </c>
       <c r="B767" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C767" s="1">
         <v>210</v>
@@ -12119,7 +12122,7 @@
         <v>3689401</v>
       </c>
       <c r="B768" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C768" s="1">
         <v>210</v>
@@ -12130,7 +12133,7 @@
         <v>3690401</v>
       </c>
       <c r="B769" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C769" s="1">
         <v>210</v>
@@ -12141,7 +12144,7 @@
         <v>3692401</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C770" s="1">
         <v>210</v>
@@ -12152,7 +12155,7 @@
         <v>3696401</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C771" s="1">
         <v>210</v>
@@ -12163,7 +12166,7 @@
         <v>3704401</v>
       </c>
       <c r="B772" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C772" s="1">
         <v>210</v>
@@ -12174,7 +12177,7 @@
         <v>3712401</v>
       </c>
       <c r="B773" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C773" s="1">
         <v>210</v>
@@ -12185,7 +12188,7 @@
         <v>3713401</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C774" s="1">
         <v>210</v>
@@ -12196,7 +12199,7 @@
         <v>3726401</v>
       </c>
       <c r="B775" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C775" s="1">
         <v>210</v>
@@ -12207,7 +12210,7 @@
         <v>3805401</v>
       </c>
       <c r="B776" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C776" s="1">
         <v>210</v>
@@ -12218,7 +12221,7 @@
         <v>3811401</v>
       </c>
       <c r="B777" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C777" s="1">
         <v>210</v>
@@ -12229,7 +12232,7 @@
         <v>3908401</v>
       </c>
       <c r="B778" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C778" s="1">
         <v>210</v>
@@ -12240,7 +12243,7 @@
         <v>3911401</v>
       </c>
       <c r="B779" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C779" s="1">
         <v>210</v>
@@ -12251,7 +12254,7 @@
         <v>3912401</v>
       </c>
       <c r="B780" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C780" s="1">
         <v>210</v>
@@ -12262,7 +12265,7 @@
         <v>3923288</v>
       </c>
       <c r="B781" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C781" s="1">
         <v>26</v>
@@ -12273,7 +12276,7 @@
         <v>3923401</v>
       </c>
       <c r="B782" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C782" s="1">
         <v>210</v>
@@ -12284,7 +12287,7 @@
         <v>3941401</v>
       </c>
       <c r="B783" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C783" s="1">
         <v>210</v>
@@ -12295,7 +12298,7 @@
         <v>4001401</v>
       </c>
       <c r="B784" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C784" s="1">
         <v>210</v>
@@ -12306,7 +12309,7 @@
         <v>4003401</v>
       </c>
       <c r="B785" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C785" s="1">
         <v>210</v>
@@ -12317,7 +12320,7 @@
         <v>4004401</v>
       </c>
       <c r="B786" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C786" s="1">
         <v>210</v>
@@ -12328,7 +12331,7 @@
         <v>4007401</v>
       </c>
       <c r="B787" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C787" s="1">
         <v>210</v>
@@ -12339,7 +12342,7 @@
         <v>4008401</v>
       </c>
       <c r="B788" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C788" s="1">
         <v>210</v>
@@ -12350,7 +12353,7 @@
         <v>4202451</v>
       </c>
       <c r="B789" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C789" s="1">
         <v>182</v>
@@ -12361,7 +12364,7 @@
         <v>4202455</v>
       </c>
       <c r="B790" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C790" s="1">
         <v>200</v>
@@ -12372,7 +12375,7 @@
         <v>4203451</v>
       </c>
       <c r="B791" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C791" s="1">
         <v>182</v>
@@ -12383,7 +12386,7 @@
         <v>4203455</v>
       </c>
       <c r="B792" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C792" s="1">
         <v>200</v>
@@ -12394,7 +12397,7 @@
         <v>4206464</v>
       </c>
       <c r="B793" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C793" s="1">
         <v>180</v>
@@ -12405,7 +12408,7 @@
         <v>4211451</v>
       </c>
       <c r="B794" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C794" s="1">
         <v>182</v>
@@ -12416,7 +12419,7 @@
         <v>4313401</v>
       </c>
       <c r="B795" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C795" s="1">
         <v>210</v>
@@ -12427,7 +12430,7 @@
         <v>4315401</v>
       </c>
       <c r="B796" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C796" s="1">
         <v>210</v>
@@ -12438,7 +12441,7 @@
         <v>4320450</v>
       </c>
       <c r="B797" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C797" s="1">
         <v>182</v>
@@ -12449,7 +12452,7 @@
         <v>4320455</v>
       </c>
       <c r="B798" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C798" s="1">
         <v>200</v>
@@ -12460,7 +12463,7 @@
         <v>4326455</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C799" s="1">
         <v>200</v>
@@ -12471,7 +12474,7 @@
         <v>4501401</v>
       </c>
       <c r="B800" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C800" s="1">
         <v>210</v>
@@ -12482,7 +12485,7 @@
         <v>4511288</v>
       </c>
       <c r="B801" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C801" s="1">
         <v>26</v>
@@ -12493,7 +12496,7 @@
         <v>4511401</v>
       </c>
       <c r="B802" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C802" s="1">
         <v>210</v>
@@ -12504,7 +12507,7 @@
         <v>4524401</v>
       </c>
       <c r="B803" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C803" s="1">
         <v>210</v>
@@ -12515,7 +12518,7 @@
         <v>4529401</v>
       </c>
       <c r="B804" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C804" s="1">
         <v>210</v>
@@ -12526,7 +12529,7 @@
         <v>4557401</v>
       </c>
       <c r="B805" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C805" s="1">
         <v>210</v>
@@ -12537,7 +12540,7 @@
         <v>4566401</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C806" s="1">
         <v>210</v>
@@ -12548,7 +12551,7 @@
         <v>4567401</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C807" s="1">
         <v>210</v>
@@ -12559,7 +12562,7 @@
         <v>4568401</v>
       </c>
       <c r="B808" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C808" s="1">
         <v>210</v>
@@ -12570,7 +12573,7 @@
         <v>4569401</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C809" s="1">
         <v>210</v>
@@ -12581,7 +12584,7 @@
         <v>4698401</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C810" s="1">
         <v>210</v>
@@ -12592,7 +12595,7 @@
         <v>4702401</v>
       </c>
       <c r="B811" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C811" s="1">
         <v>210</v>
@@ -12603,7 +12606,7 @@
         <v>4704401</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C812" s="1">
         <v>210</v>
@@ -12614,7 +12617,7 @@
         <v>4724401</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C813" s="1">
         <v>210</v>
@@ -12625,7 +12628,7 @@
         <v>4725401</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C814" s="1">
         <v>210</v>
@@ -12636,7 +12639,7 @@
         <v>4752401</v>
       </c>
       <c r="B815" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C815" s="1">
         <v>210</v>
@@ -12647,7 +12650,7 @@
         <v>4767401</v>
       </c>
       <c r="B816" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C816" s="1">
         <v>210</v>
@@ -12658,7 +12661,7 @@
         <v>4773401</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C817" s="1">
         <v>210</v>
@@ -12669,7 +12672,7 @@
         <v>4778401</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C818" s="1">
         <v>210</v>
@@ -12680,7 +12683,7 @@
         <v>4779401</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C819" s="1">
         <v>210</v>
@@ -12691,7 +12694,7 @@
         <v>4783401</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C820" s="1">
         <v>210</v>
@@ -12702,7 +12705,7 @@
         <v>4784401</v>
       </c>
       <c r="B821" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C821" s="1">
         <v>210</v>
@@ -12713,7 +12716,7 @@
         <v>4785401</v>
       </c>
       <c r="B822" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C822" s="1">
         <v>210</v>
@@ -12724,7 +12727,7 @@
         <v>4786401</v>
       </c>
       <c r="B823" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C823" s="1">
         <v>210</v>
@@ -12735,7 +12738,7 @@
         <v>4791401</v>
       </c>
       <c r="B824" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C824" s="1">
         <v>210</v>
@@ -12746,7 +12749,7 @@
         <v>4795401</v>
       </c>
       <c r="B825" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C825" s="1">
         <v>210</v>
@@ -12757,7 +12760,7 @@
         <v>4796401</v>
       </c>
       <c r="B826" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C826" s="1">
         <v>210</v>
@@ -12768,7 +12771,7 @@
         <v>4802401</v>
       </c>
       <c r="B827" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C827" s="1">
         <v>210</v>
@@ -12779,7 +12782,7 @@
         <v>4803401</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C828" s="1">
         <v>210</v>
@@ -12790,7 +12793,7 @@
         <v>4809401</v>
       </c>
       <c r="B829" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C829" s="1">
         <v>210</v>
@@ -12801,7 +12804,7 @@
         <v>4811401</v>
       </c>
       <c r="B830" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C830" s="1">
         <v>210</v>
@@ -12812,7 +12815,7 @@
         <v>4812401</v>
       </c>
       <c r="B831" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C831" s="1">
         <v>210</v>
@@ -12823,7 +12826,7 @@
         <v>4813288</v>
       </c>
       <c r="B832" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C832" s="1">
         <v>26</v>
@@ -12834,7 +12837,7 @@
         <v>4813401</v>
       </c>
       <c r="B833" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C833" s="1">
         <v>210</v>
@@ -12845,7 +12848,7 @@
         <v>4814401</v>
       </c>
       <c r="B834" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C834" s="1">
         <v>210</v>
@@ -12856,7 +12859,7 @@
         <v>4902401</v>
       </c>
       <c r="B835" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C835" s="1">
         <v>210</v>
@@ -12867,7 +12870,7 @@
         <v>4905401</v>
       </c>
       <c r="B836" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C836" s="1">
         <v>210</v>
@@ -12878,7 +12881,7 @@
         <v>4906401</v>
       </c>
       <c r="B837" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C837" s="1">
         <v>210</v>
@@ -12889,7 +12892,7 @@
         <v>4911401</v>
       </c>
       <c r="B838" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C838" s="1">
         <v>210</v>
@@ -12900,7 +12903,7 @@
         <v>4915401</v>
       </c>
       <c r="B839" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C839" s="1">
         <v>210</v>
@@ -12911,7 +12914,7 @@
         <v>4920280</v>
       </c>
       <c r="B840" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C840" s="1">
         <v>28</v>
@@ -12922,7 +12925,7 @@
         <v>4920401</v>
       </c>
       <c r="B841" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C841" s="1">
         <v>210</v>
@@ -12933,7 +12936,7 @@
         <v>4922401</v>
       </c>
       <c r="B842" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C842" s="1">
         <v>210</v>
@@ -12944,7 +12947,7 @@
         <v>4924401</v>
       </c>
       <c r="B843" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C843" s="1">
         <v>210</v>
@@ -12955,7 +12958,7 @@
         <v>4925401</v>
       </c>
       <c r="B844" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C844" s="1">
         <v>210</v>
@@ -12966,7 +12969,7 @@
         <v>4931401</v>
       </c>
       <c r="B845" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C845" s="1">
         <v>210</v>
@@ -12977,7 +12980,7 @@
         <v>4932401</v>
       </c>
       <c r="B846" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C846" s="1">
         <v>210</v>
@@ -12988,7 +12991,7 @@
         <v>4933401</v>
       </c>
       <c r="B847" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C847" s="1">
         <v>210</v>
@@ -12999,7 +13002,7 @@
         <v>4936401</v>
       </c>
       <c r="B848" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C848" s="1">
         <v>210</v>
@@ -13010,7 +13013,7 @@
         <v>4937401</v>
       </c>
       <c r="B849" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C849" s="1">
         <v>210</v>
@@ -13021,7 +13024,7 @@
         <v>4941401</v>
       </c>
       <c r="B850" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C850" s="1">
         <v>210</v>
@@ -13032,7 +13035,7 @@
         <v>4942401</v>
       </c>
       <c r="B851" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C851" s="1">
         <v>210</v>
@@ -13043,7 +13046,7 @@
         <v>4943401</v>
       </c>
       <c r="B852" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C852" s="1">
         <v>210</v>
@@ -13054,7 +13057,7 @@
         <v>4946401</v>
       </c>
       <c r="B853" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C853" s="1">
         <v>210</v>
@@ -13065,7 +13068,7 @@
         <v>4947401</v>
       </c>
       <c r="B854" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C854" s="1">
         <v>210</v>
@@ -13076,7 +13079,7 @@
         <v>4948401</v>
       </c>
       <c r="B855" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C855" s="1">
         <v>210</v>
@@ -13087,7 +13090,7 @@
         <v>4949271</v>
       </c>
       <c r="B856" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C856" s="1">
         <v>50</v>
@@ -13098,7 +13101,7 @@
         <v>4950288</v>
       </c>
       <c r="B857" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C857" s="1">
         <v>26</v>
@@ -13109,7 +13112,7 @@
         <v>4950401</v>
       </c>
       <c r="B858" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C858" s="1">
         <v>210</v>
@@ -13120,7 +13123,7 @@
         <v>4952401</v>
       </c>
       <c r="B859" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C859" s="1">
         <v>210</v>
@@ -13131,7 +13134,7 @@
         <v>4953401</v>
       </c>
       <c r="B860" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C860" s="1">
         <v>210</v>
@@ -13142,7 +13145,7 @@
         <v>4954401</v>
       </c>
       <c r="B861" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C861" s="1">
         <v>210</v>
@@ -13153,7 +13156,7 @@
         <v>5002401</v>
       </c>
       <c r="B862" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C862" s="1">
         <v>210</v>
@@ -13164,7 +13167,7 @@
         <v>5031401</v>
       </c>
       <c r="B863" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C863" s="1">
         <v>210</v>
@@ -13175,7 +13178,7 @@
         <v>5032401</v>
       </c>
       <c r="B864" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C864" s="1">
         <v>210</v>
@@ -13186,7 +13189,7 @@
         <v>5033401</v>
       </c>
       <c r="B865" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C865" s="1">
         <v>210</v>
@@ -13197,7 +13200,7 @@
         <v>5034401</v>
       </c>
       <c r="B866" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C866" s="1">
         <v>210</v>
@@ -13208,7 +13211,7 @@
         <v>5044401</v>
       </c>
       <c r="B867" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C867" s="1">
         <v>210</v>
@@ -13219,7 +13222,7 @@
         <v>5048401</v>
       </c>
       <c r="B868" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C868" s="1">
         <v>210</v>
@@ -13230,7 +13233,7 @@
         <v>5049401</v>
       </c>
       <c r="B869" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C869" s="1">
         <v>210</v>
@@ -13241,7 +13244,7 @@
         <v>5825401</v>
       </c>
       <c r="B870" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C870" s="1">
         <v>210</v>
@@ -13252,7 +13255,7 @@
         <v>5826401</v>
       </c>
       <c r="B871" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C871" s="1">
         <v>210</v>
@@ -13263,7 +13266,7 @@
         <v>5874401</v>
       </c>
       <c r="B872" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C872" s="1">
         <v>210</v>
@@ -13274,7 +13277,7 @@
         <v>5875401</v>
       </c>
       <c r="B873" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C873" s="1">
         <v>210</v>
@@ -13285,7 +13288,7 @@
         <v>6318455</v>
       </c>
       <c r="B874" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C874" s="1">
         <v>200</v>
@@ -13296,7 +13299,7 @@
         <v>6325401</v>
       </c>
       <c r="B875" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C875" s="1">
         <v>210</v>
@@ -13307,7 +13310,7 @@
         <v>6352401</v>
       </c>
       <c r="B876" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C876" s="1">
         <v>210</v>
@@ -13318,7 +13321,7 @@
         <v>6355401</v>
       </c>
       <c r="B877" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C877" s="1">
         <v>210</v>
@@ -13329,7 +13332,7 @@
         <v>6359401</v>
       </c>
       <c r="B878" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C878" s="1">
         <v>210</v>
@@ -13340,7 +13343,7 @@
         <v>6400401</v>
       </c>
       <c r="B879" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C879" s="1">
         <v>210</v>
@@ -13351,7 +13354,7 @@
         <v>6727401</v>
       </c>
       <c r="B880" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C880" s="1">
         <v>210</v>
@@ -13362,7 +13365,7 @@
         <v>6753401</v>
       </c>
       <c r="B881" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C881" s="1">
         <v>210</v>
@@ -13373,7 +13376,7 @@
         <v>7201401</v>
       </c>
       <c r="B882" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C882" s="1">
         <v>210</v>
@@ -13384,7 +13387,7 @@
         <v>7202271</v>
       </c>
       <c r="B883" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C883" s="1">
         <v>50</v>
@@ -13395,7 +13398,7 @@
         <v>7206271</v>
       </c>
       <c r="B884" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C884" s="1">
         <v>50</v>
@@ -13406,7 +13409,7 @@
         <v>7207271</v>
       </c>
       <c r="B885" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C885" s="1">
         <v>50</v>
@@ -13417,7 +13420,7 @@
         <v>7208271</v>
       </c>
       <c r="B886" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C886" s="1">
         <v>50</v>
@@ -13428,7 +13431,7 @@
         <v>7202401</v>
       </c>
       <c r="B887" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C887" s="1">
         <v>210</v>
@@ -13439,7 +13442,7 @@
         <v>7205401</v>
       </c>
       <c r="B888" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C888" s="1">
         <v>210</v>
@@ -13450,7 +13453,7 @@
         <v>7206401</v>
       </c>
       <c r="B889" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C889" s="1">
         <v>210</v>
@@ -13461,7 +13464,7 @@
         <v>7207401</v>
       </c>
       <c r="B890" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C890" s="1">
         <v>210</v>
@@ -13472,7 +13475,7 @@
         <v>7208401</v>
       </c>
       <c r="B891" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C891" s="1">
         <v>210</v>
@@ -13483,7 +13486,7 @@
         <v>7209401</v>
       </c>
       <c r="B892" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C892" s="1">
         <v>210</v>
@@ -13494,7 +13497,7 @@
         <v>7264401</v>
       </c>
       <c r="B893" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C893" s="1">
         <v>210</v>
@@ -13505,7 +13508,7 @@
         <v>7265401</v>
       </c>
       <c r="B894" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C894" s="1">
         <v>210</v>
@@ -13516,7 +13519,7 @@
         <v>7271401</v>
       </c>
       <c r="B895" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C895" s="1">
         <v>210</v>
@@ -13527,7 +13530,7 @@
         <v>7330288</v>
       </c>
       <c r="B896" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C896" s="1">
         <v>26</v>
@@ -13538,7 +13541,7 @@
         <v>7330288</v>
       </c>
       <c r="B897" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C897" s="1">
         <v>26</v>
@@ -13549,7 +13552,7 @@
         <v>7330403</v>
       </c>
       <c r="B898" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C898" s="1">
         <v>210</v>
@@ -13560,7 +13563,7 @@
         <v>7358401</v>
       </c>
       <c r="B899" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C899" s="1">
         <v>210</v>
@@ -13571,7 +13574,7 @@
         <v>7359401</v>
       </c>
       <c r="B900" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C900" s="1">
         <v>210</v>
@@ -13582,7 +13585,7 @@
         <v>7360401</v>
       </c>
       <c r="B901" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C901" s="1">
         <v>210</v>
@@ -13593,7 +13596,7 @@
         <v>7386401</v>
       </c>
       <c r="B902" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C902" s="1">
         <v>210</v>
@@ -13604,7 +13607,7 @@
         <v>7387401</v>
       </c>
       <c r="B903" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C903" s="1">
         <v>210</v>
@@ -13615,7 +13618,7 @@
         <v>7393401</v>
       </c>
       <c r="B904" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C904" s="1">
         <v>210</v>
@@ -13626,7 +13629,7 @@
         <v>7394401</v>
       </c>
       <c r="B905" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C905" s="1">
         <v>210</v>
@@ -13637,7 +13640,7 @@
         <v>7395401</v>
       </c>
       <c r="B906" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C906" s="1">
         <v>210</v>
@@ -13648,7 +13651,7 @@
         <v>7396401</v>
       </c>
       <c r="B907" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C907" s="1">
         <v>210</v>
@@ -13659,7 +13662,7 @@
         <v>7397401</v>
       </c>
       <c r="B908" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C908" s="1">
         <v>210</v>
@@ -13670,7 +13673,7 @@
         <v>7398401</v>
       </c>
       <c r="B909" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C909" s="1">
         <v>210</v>
@@ -13681,7 +13684,7 @@
         <v>7400401</v>
       </c>
       <c r="B910" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C910" s="1">
         <v>210</v>
@@ -13692,7 +13695,7 @@
         <v>7403401</v>
       </c>
       <c r="B911" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C911" s="1">
         <v>210</v>
@@ -13703,7 +13706,7 @@
         <v>7415464</v>
       </c>
       <c r="B912" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C912" s="1">
         <v>180</v>
@@ -13714,7 +13717,7 @@
         <v>7416450</v>
       </c>
       <c r="B913" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C913" s="1">
         <v>182</v>
@@ -13725,7 +13728,7 @@
         <v>7416464</v>
       </c>
       <c r="B914" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C914" s="1">
         <v>180</v>
@@ -13736,7 +13739,7 @@
         <v>7417354</v>
       </c>
       <c r="B915" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C915" s="1">
         <v>30</v>
@@ -13747,7 +13750,7 @@
         <v>7417450</v>
       </c>
       <c r="B916" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C916" s="1">
         <v>182</v>
@@ -13758,7 +13761,7 @@
         <v>7417464</v>
       </c>
       <c r="B917" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C917" s="1">
         <v>180</v>
@@ -13769,7 +13772,7 @@
         <v>7418401</v>
       </c>
       <c r="B918" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C918" s="1">
         <v>210</v>
@@ -13780,7 +13783,7 @@
         <v>7419401</v>
       </c>
       <c r="B919" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C919" s="1">
         <v>210</v>
@@ -13791,7 +13794,7 @@
         <v>7420271</v>
       </c>
       <c r="B920" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C920" s="1">
         <v>50</v>
@@ -13802,7 +13805,7 @@
         <v>7420401</v>
       </c>
       <c r="B921" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C921" s="1">
         <v>210</v>
@@ -13813,7 +13816,7 @@
         <v>7421271</v>
       </c>
       <c r="B922" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C922" s="1">
         <v>50</v>
@@ -13824,7 +13827,7 @@
         <v>7421401</v>
       </c>
       <c r="B923" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C923" s="1">
         <v>210</v>
@@ -13835,7 +13838,7 @@
         <v>7422271</v>
       </c>
       <c r="B924" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C924" s="1">
         <v>50</v>
@@ -13846,7 +13849,7 @@
         <v>7422401</v>
       </c>
       <c r="B925" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C925" s="1">
         <v>210</v>
@@ -13857,7 +13860,7 @@
         <v>7423271</v>
       </c>
       <c r="B926" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C926" s="1">
         <v>50</v>
@@ -13868,7 +13871,7 @@
         <v>7423401</v>
       </c>
       <c r="B927" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C927" s="1">
         <v>210</v>
@@ -13879,7 +13882,7 @@
         <v>7424271</v>
       </c>
       <c r="B928" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C928" s="1">
         <v>50</v>
@@ -13890,7 +13893,7 @@
         <v>7424401</v>
       </c>
       <c r="B929" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C929" s="1">
         <v>210</v>
@@ -13901,7 +13904,7 @@
         <v>7425401</v>
       </c>
       <c r="B930" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C930" s="1">
         <v>210</v>
@@ -13912,7 +13915,7 @@
         <v>7426401</v>
       </c>
       <c r="B931" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C931" s="1">
         <v>210</v>
@@ -13923,7 +13926,7 @@
         <v>7427401</v>
       </c>
       <c r="B932" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C932" s="1">
         <v>210</v>
@@ -13934,7 +13937,7 @@
         <v>7428401</v>
       </c>
       <c r="B933" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C933" s="1">
         <v>210</v>
@@ -13945,7 +13948,7 @@
         <v>7429401</v>
       </c>
       <c r="B934" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C934" s="1">
         <v>210</v>
@@ -13956,7 +13959,7 @@
         <v>7430401</v>
       </c>
       <c r="B935" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C935" s="1">
         <v>210</v>
@@ -13967,7 +13970,7 @@
         <v>7432401</v>
       </c>
       <c r="B936" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C936" s="1">
         <v>210</v>
@@ -13978,7 +13981,7 @@
         <v>7433401</v>
       </c>
       <c r="B937" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C937" s="1">
         <v>210</v>
@@ -13989,7 +13992,7 @@
         <v>7434401</v>
       </c>
       <c r="B938" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C938" s="1">
         <v>210</v>
@@ -14000,7 +14003,7 @@
         <v>7435271</v>
       </c>
       <c r="B939" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C939" s="1">
         <v>50</v>
@@ -14011,7 +14014,7 @@
         <v>7435401</v>
       </c>
       <c r="B940" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C940" s="1">
         <v>210</v>
@@ -14022,7 +14025,7 @@
         <v>7436401</v>
       </c>
       <c r="B941" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C941" s="1">
         <v>210</v>
@@ -14033,7 +14036,7 @@
         <v>7437401</v>
       </c>
       <c r="B942" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C942" s="1">
         <v>210</v>
@@ -14044,7 +14047,7 @@
         <v>7438401</v>
       </c>
       <c r="B943" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C943" s="1">
         <v>210</v>
@@ -14055,7 +14058,7 @@
         <v>7439401</v>
       </c>
       <c r="B944" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C944" s="1">
         <v>210</v>
@@ -14066,7 +14069,7 @@
         <v>7440401</v>
       </c>
       <c r="B945" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C945" s="1">
         <v>210</v>
@@ -14077,7 +14080,7 @@
         <v>7441401</v>
       </c>
       <c r="B946" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C946" s="1">
         <v>210</v>
@@ -14088,7 +14091,7 @@
         <v>7442401</v>
       </c>
       <c r="B947" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C947" s="1">
         <v>210</v>
@@ -14099,7 +14102,7 @@
         <v>7443401</v>
       </c>
       <c r="B948" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C948" s="1">
         <v>210</v>
@@ -14110,7 +14113,7 @@
         <v>7444401</v>
       </c>
       <c r="B949" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C949" s="1">
         <v>210</v>
@@ -14121,7 +14124,7 @@
         <v>7445401</v>
       </c>
       <c r="B950" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C950" s="1">
         <v>210</v>
@@ -14132,7 +14135,7 @@
         <v>7446271</v>
       </c>
       <c r="B951" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C951" s="1">
         <v>50</v>
@@ -14143,7 +14146,7 @@
         <v>7446401</v>
       </c>
       <c r="B952" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C952" s="1">
         <v>210</v>
@@ -14154,7 +14157,7 @@
         <v>7450401</v>
       </c>
       <c r="B953" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C953" s="1">
         <v>210</v>
@@ -14165,7 +14168,7 @@
         <v>7451401</v>
       </c>
       <c r="B954" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C954" s="1">
         <v>210</v>
@@ -14176,7 +14179,7 @@
         <v>7452271</v>
       </c>
       <c r="B955" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C955" s="1">
         <v>50</v>
@@ -14187,7 +14190,7 @@
         <v>7452401</v>
       </c>
       <c r="B956" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C956" s="1">
         <v>210</v>
@@ -14198,7 +14201,7 @@
         <v>7453401</v>
       </c>
       <c r="B957" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C957" s="1">
         <v>210</v>
@@ -14209,7 +14212,7 @@
         <v>7459401</v>
       </c>
       <c r="B958" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C958" s="1">
         <v>210</v>
@@ -14220,7 +14223,7 @@
         <v>7461401</v>
       </c>
       <c r="B959" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C959" s="1">
         <v>210</v>
@@ -14231,7 +14234,7 @@
         <v>7462401</v>
       </c>
       <c r="B960" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C960" s="1">
         <v>210</v>
@@ -14242,7 +14245,7 @@
         <v>7463271</v>
       </c>
       <c r="B961" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C961" s="1">
         <v>50</v>
@@ -14253,7 +14256,7 @@
         <v>7464271</v>
       </c>
       <c r="B962" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C962" s="1">
         <v>50</v>
@@ -14264,7 +14267,7 @@
         <v>7464401</v>
       </c>
       <c r="B963" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C963" s="1">
         <v>210</v>
@@ -14275,7 +14278,7 @@
         <v>7465401</v>
       </c>
       <c r="B964" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C964" s="1">
         <v>210</v>
@@ -14286,7 +14289,7 @@
         <v>7467401</v>
       </c>
       <c r="B965" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C965" s="1">
         <v>210</v>
@@ -14297,7 +14300,7 @@
         <v>7470401</v>
       </c>
       <c r="B966" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C966" s="1">
         <v>210</v>
@@ -14308,7 +14311,7 @@
         <v>7472401</v>
       </c>
       <c r="B967" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C967" s="1">
         <v>210</v>
@@ -14319,7 +14322,7 @@
         <v>7473401</v>
       </c>
       <c r="B968" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C968" s="1">
         <v>210</v>
@@ -14330,7 +14333,7 @@
         <v>7474401</v>
       </c>
       <c r="B969" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C969" s="1">
         <v>210</v>
@@ -14341,7 +14344,7 @@
         <v>7475401</v>
       </c>
       <c r="B970" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C970" s="1">
         <v>210</v>
@@ -14352,7 +14355,7 @@
         <v>7476401</v>
       </c>
       <c r="B971" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C971" s="1">
         <v>210</v>
@@ -14363,7 +14366,7 @@
         <v>7477401</v>
       </c>
       <c r="B972" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C972" s="1">
         <v>210</v>
@@ -14374,7 +14377,7 @@
         <v>7481401</v>
       </c>
       <c r="B973" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C973" s="1">
         <v>210</v>
@@ -14385,7 +14388,7 @@
         <v>7485288</v>
       </c>
       <c r="B974" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C974" s="1">
         <v>26</v>
@@ -14396,7 +14399,7 @@
         <v>7485401</v>
       </c>
       <c r="B975" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C975" s="1">
         <v>210</v>
@@ -14407,7 +14410,7 @@
         <v>7487401</v>
       </c>
       <c r="B976" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C976" s="1">
         <v>210</v>
@@ -14418,7 +14421,7 @@
         <v>7489271</v>
       </c>
       <c r="B977" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C977" s="1">
         <v>50</v>
@@ -14429,7 +14432,7 @@
         <v>7489401</v>
       </c>
       <c r="B978" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C978" s="1">
         <v>210</v>
@@ -14440,7 +14443,7 @@
         <v>7489402</v>
       </c>
       <c r="B979" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C979" s="1">
         <v>208</v>
@@ -14451,7 +14454,7 @@
         <v>7490401</v>
       </c>
       <c r="B980" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C980" s="1">
         <v>210</v>
@@ -14462,7 +14465,7 @@
         <v>7494271</v>
       </c>
       <c r="B981" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C981" s="1">
         <v>50</v>
@@ -14473,7 +14476,7 @@
         <v>7494284</v>
       </c>
       <c r="B982" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C982" s="1">
         <v>50</v>
@@ -14484,7 +14487,7 @@
         <v>7494401</v>
       </c>
       <c r="B983" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C983" s="1">
         <v>210</v>
@@ -14495,7 +14498,7 @@
         <v>7494403</v>
       </c>
       <c r="B984" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C984" s="1">
         <v>210</v>
@@ -14506,7 +14509,7 @@
         <v>7511401</v>
       </c>
       <c r="B985" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C985" s="1">
         <v>210</v>
@@ -14517,7 +14520,7 @@
         <v>7512401</v>
       </c>
       <c r="B986" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C986" s="1">
         <v>210</v>
@@ -14528,7 +14531,7 @@
         <v>7513271</v>
       </c>
       <c r="B987" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C987" s="1">
         <v>50</v>
@@ -14539,7 +14542,7 @@
         <v>7513401</v>
       </c>
       <c r="B988" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C988" s="1">
         <v>210</v>
@@ -14550,7 +14553,7 @@
         <v>7514401</v>
       </c>
       <c r="B989" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C989" s="1">
         <v>210</v>
@@ -14561,7 +14564,7 @@
         <v>7515401</v>
       </c>
       <c r="B990" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C990" s="1">
         <v>210</v>
@@ -14572,7 +14575,7 @@
         <v>7521401</v>
       </c>
       <c r="B991" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C991" s="1">
         <v>210</v>
@@ -14583,7 +14586,7 @@
         <v>7524401</v>
       </c>
       <c r="B992" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C992" s="1">
         <v>210</v>
@@ -14594,7 +14597,7 @@
         <v>7527401</v>
       </c>
       <c r="B993" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C993" s="1">
         <v>210</v>
@@ -14605,7 +14608,7 @@
         <v>7531401</v>
       </c>
       <c r="B994" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C994" s="1">
         <v>210</v>
@@ -14616,7 +14619,7 @@
         <v>7543401</v>
       </c>
       <c r="B995" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C995" s="1">
         <v>210</v>
@@ -14627,7 +14630,7 @@
         <v>7553401</v>
       </c>
       <c r="B996" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C996" s="1">
         <v>210</v>
@@ -14638,7 +14641,7 @@
         <v>7556401</v>
       </c>
       <c r="B997" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C997" s="1">
         <v>210</v>
@@ -14649,7 +14652,7 @@
         <v>7561401</v>
       </c>
       <c r="B998" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C998" s="1">
         <v>210</v>
@@ -14660,7 +14663,7 @@
         <v>7562401</v>
       </c>
       <c r="B999" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C999" s="1">
         <v>210</v>
@@ -14671,7 +14674,7 @@
         <v>7564401</v>
       </c>
       <c r="B1000" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C1000" s="1">
         <v>210</v>
@@ -14682,7 +14685,7 @@
         <v>7571401</v>
       </c>
       <c r="B1001" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C1001" s="1">
         <v>210</v>
@@ -14693,7 +14696,7 @@
         <v>7572401</v>
       </c>
       <c r="B1002" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C1002" s="1">
         <v>210</v>
@@ -14704,7 +14707,7 @@
         <v>7577271</v>
       </c>
       <c r="B1003" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C1003" s="1">
         <v>50</v>
@@ -14715,7 +14718,7 @@
         <v>7577284</v>
       </c>
       <c r="B1004" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C1004" s="1">
         <v>50</v>
@@ -14726,7 +14729,7 @@
         <v>7577288</v>
       </c>
       <c r="B1005" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C1005" s="1">
         <v>26</v>
@@ -14737,7 +14740,7 @@
         <v>7577401</v>
       </c>
       <c r="B1006" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C1006" s="1">
         <v>210</v>
@@ -14748,7 +14751,7 @@
         <v>7577402</v>
       </c>
       <c r="B1007" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C1007" s="1">
         <v>208</v>
@@ -14759,7 +14762,7 @@
         <v>7584401</v>
       </c>
       <c r="B1008" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C1008" s="1">
         <v>210</v>
@@ -14770,7 +14773,7 @@
         <v>7586288</v>
       </c>
       <c r="B1009" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C1009" s="1">
         <v>26</v>
@@ -14781,7 +14784,7 @@
         <v>7591401</v>
       </c>
       <c r="B1010" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C1010" s="1">
         <v>210</v>
@@ -14792,7 +14795,7 @@
         <v>7599401</v>
       </c>
       <c r="B1011" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C1011" s="1">
         <v>210</v>
@@ -14803,7 +14806,7 @@
         <v>7600401</v>
       </c>
       <c r="B1012" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C1012" s="1">
         <v>210</v>
@@ -14814,7 +14817,7 @@
         <v>7607401</v>
       </c>
       <c r="B1013" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C1013" s="1">
         <v>210</v>
@@ -14825,7 +14828,7 @@
         <v>7612271</v>
       </c>
       <c r="B1014" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C1014" s="1">
         <v>50</v>
@@ -14836,7 +14839,7 @@
         <v>7612401</v>
       </c>
       <c r="B1015" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C1015" s="1">
         <v>210</v>
@@ -14847,7 +14850,7 @@
         <v>7612403</v>
       </c>
       <c r="B1016" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C1016" s="1">
         <v>210</v>
@@ -14858,7 +14861,7 @@
         <v>7624401</v>
       </c>
       <c r="B1017" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C1017" s="1">
         <v>210</v>
@@ -14869,7 +14872,7 @@
         <v>7628401</v>
       </c>
       <c r="B1018" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C1018" s="1">
         <v>210</v>
@@ -14880,7 +14883,7 @@
         <v>7630401</v>
       </c>
       <c r="B1019" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C1019" s="1">
         <v>210</v>
@@ -14891,7 +14894,7 @@
         <v>7637401</v>
       </c>
       <c r="B1020" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C1020" s="1">
         <v>210</v>
@@ -14902,7 +14905,7 @@
         <v>7638401</v>
       </c>
       <c r="B1021" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C1021" s="1">
         <v>210</v>
@@ -14913,7 +14916,7 @@
         <v>7643401</v>
       </c>
       <c r="B1022" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C1022" s="1">
         <v>210</v>
@@ -14924,7 +14927,7 @@
         <v>7651401</v>
       </c>
       <c r="B1023" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C1023" s="1">
         <v>210</v>
@@ -14935,7 +14938,7 @@
         <v>7663401</v>
       </c>
       <c r="B1024" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C1024" s="1">
         <v>210</v>
@@ -14946,7 +14949,7 @@
         <v>7667402</v>
       </c>
       <c r="B1025" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C1025" s="1">
         <v>208</v>
@@ -14957,7 +14960,7 @@
         <v>7670401</v>
       </c>
       <c r="B1026" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C1026" s="1">
         <v>210</v>
@@ -14968,7 +14971,7 @@
         <v>7677401</v>
       </c>
       <c r="B1027" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C1027" s="1">
         <v>210</v>
@@ -14979,7 +14982,7 @@
         <v>7678401</v>
       </c>
       <c r="B1028" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C1028" s="1">
         <v>210</v>
@@ -14990,7 +14993,7 @@
         <v>7688401</v>
       </c>
       <c r="B1029" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C1029" s="1">
         <v>210</v>
@@ -15001,7 +15004,7 @@
         <v>7690401</v>
       </c>
       <c r="B1030" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C1030" s="1">
         <v>210</v>
@@ -15012,7 +15015,7 @@
         <v>7694401</v>
       </c>
       <c r="B1031" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C1031" s="1">
         <v>210</v>
@@ -15023,7 +15026,7 @@
         <v>7698451</v>
       </c>
       <c r="B1032" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C1032" s="1">
         <v>182</v>
@@ -15034,7 +15037,7 @@
         <v>7701450</v>
       </c>
       <c r="B1033" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C1033" s="1">
         <v>182</v>
@@ -15045,7 +15048,7 @@
         <v>7701451</v>
       </c>
       <c r="B1034" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C1034" s="1">
         <v>182</v>
@@ -15056,7 +15059,7 @@
         <v>7702451</v>
       </c>
       <c r="B1035" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C1035" s="1">
         <v>182</v>
@@ -15067,7 +15070,7 @@
         <v>7703450</v>
       </c>
       <c r="B1036" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C1036" s="1">
         <v>182</v>
@@ -15078,7 +15081,7 @@
         <v>7703451</v>
       </c>
       <c r="B1037" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C1037" s="1">
         <v>182</v>
@@ -15089,7 +15092,7 @@
         <v>7703453</v>
       </c>
       <c r="B1038" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C1038" s="1">
         <v>175</v>
@@ -15100,7 +15103,7 @@
         <v>7705451</v>
       </c>
       <c r="B1039" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C1039" s="1">
         <v>182</v>
@@ -15111,7 +15114,7 @@
         <v>7707451</v>
       </c>
       <c r="B1040" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C1040" s="1">
         <v>182</v>
@@ -15122,7 +15125,7 @@
         <v>7719451</v>
       </c>
       <c r="B1041" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C1041" s="1">
         <v>182</v>
@@ -15133,7 +15136,7 @@
         <v>7722451</v>
       </c>
       <c r="B1042" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C1042" s="1">
         <v>182</v>
@@ -15144,7 +15147,7 @@
         <v>7723451</v>
       </c>
       <c r="B1043" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C1043" s="1">
         <v>182</v>
@@ -15155,7 +15158,7 @@
         <v>7727450</v>
       </c>
       <c r="B1044" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C1044" s="1">
         <v>182</v>
@@ -15166,7 +15169,7 @@
         <v>7727451</v>
       </c>
       <c r="B1045" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C1045" s="1">
         <v>182</v>
@@ -15177,7 +15180,7 @@
         <v>7734451</v>
       </c>
       <c r="B1046" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C1046" s="1">
         <v>182</v>
@@ -15188,7 +15191,7 @@
         <v>7734453</v>
       </c>
       <c r="B1047" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C1047" s="1">
         <v>175</v>
@@ -15199,7 +15202,7 @@
         <v>7738451</v>
       </c>
       <c r="B1048" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C1048" s="1">
         <v>182</v>
@@ -15210,7 +15213,7 @@
         <v>7738453</v>
       </c>
       <c r="B1049" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C1049" s="1">
         <v>175</v>
@@ -15221,7 +15224,7 @@
         <v>7740451</v>
       </c>
       <c r="B1050" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C1050" s="1">
         <v>182</v>
@@ -15232,7 +15235,7 @@
         <v>7740453</v>
       </c>
       <c r="B1051" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C1051" s="1">
         <v>175</v>
@@ -15243,7 +15246,7 @@
         <v>7741451</v>
       </c>
       <c r="B1052" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C1052" s="1">
         <v>182</v>
@@ -15254,7 +15257,7 @@
         <v>7742451</v>
       </c>
       <c r="B1053" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C1053" s="1">
         <v>182</v>
@@ -15265,7 +15268,7 @@
         <v>7743451</v>
       </c>
       <c r="B1054" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C1054" s="1">
         <v>182</v>
@@ -15276,7 +15279,7 @@
         <v>7744451</v>
       </c>
       <c r="B1055" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C1055" s="1">
         <v>182</v>
@@ -15287,7 +15290,7 @@
         <v>7748451</v>
       </c>
       <c r="B1056" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C1056" s="1">
         <v>182</v>
@@ -15298,7 +15301,7 @@
         <v>7763451</v>
       </c>
       <c r="B1057" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C1057" s="1">
         <v>182</v>
@@ -15309,7 +15312,7 @@
         <v>7764451</v>
       </c>
       <c r="B1058" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C1058" s="1">
         <v>182</v>
@@ -15320,7 +15323,7 @@
         <v>7779451</v>
       </c>
       <c r="B1059" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C1059" s="1">
         <v>182</v>
@@ -15331,7 +15334,7 @@
         <v>7790451</v>
       </c>
       <c r="B1060" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C1060" s="1">
         <v>182</v>
@@ -15342,7 +15345,7 @@
         <v>7795451</v>
       </c>
       <c r="B1061" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C1061" s="1">
         <v>182</v>
@@ -15353,7 +15356,7 @@
         <v>7796451</v>
       </c>
       <c r="B1062" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C1062" s="1">
         <v>182</v>
@@ -15364,7 +15367,7 @@
         <v>7801451</v>
       </c>
       <c r="B1063" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C1063" s="1">
         <v>182</v>
@@ -15375,7 +15378,7 @@
         <v>7810451</v>
       </c>
       <c r="B1064" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C1064" s="1">
         <v>182</v>
@@ -15386,7 +15389,7 @@
         <v>7811451</v>
       </c>
       <c r="B1065" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C1065" s="1">
         <v>182</v>
@@ -15397,7 +15400,7 @@
         <v>7849354</v>
       </c>
       <c r="B1066" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C1066" s="1">
         <v>30</v>
@@ -15408,7 +15411,7 @@
         <v>7849451</v>
       </c>
       <c r="B1067" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C1067" s="1">
         <v>182</v>
@@ -15419,7 +15422,7 @@
         <v>7850450</v>
       </c>
       <c r="B1068" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C1068" s="1">
         <v>182</v>
@@ -15430,7 +15433,7 @@
         <v>7850451</v>
       </c>
       <c r="B1069" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C1069" s="1">
         <v>182</v>
@@ -15441,7 +15444,7 @@
         <v>7851450</v>
       </c>
       <c r="B1070" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C1070" s="1">
         <v>182</v>
@@ -15452,7 +15455,7 @@
         <v>7851451</v>
       </c>
       <c r="B1071" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C1071" s="1">
         <v>182</v>
@@ -15463,7 +15466,7 @@
         <v>7852450</v>
       </c>
       <c r="B1072" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C1072" s="1">
         <v>182</v>
@@ -15474,7 +15477,7 @@
         <v>7852451</v>
       </c>
       <c r="B1073" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C1073" s="1">
         <v>182</v>
@@ -15485,7 +15488,7 @@
         <v>7853450</v>
       </c>
       <c r="B1074" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C1074" s="1">
         <v>182</v>
@@ -15496,7 +15499,7 @@
         <v>7853451</v>
       </c>
       <c r="B1075" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C1075" s="1">
         <v>182</v>
@@ -15507,7 +15510,7 @@
         <v>7854450</v>
       </c>
       <c r="B1076" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C1076" s="1">
         <v>182</v>
@@ -15518,7 +15521,7 @@
         <v>7854451</v>
       </c>
       <c r="B1077" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C1077" s="1">
         <v>182</v>
@@ -15529,7 +15532,7 @@
         <v>7854453</v>
       </c>
       <c r="B1078" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C1078" s="1">
         <v>175</v>
@@ -15540,7 +15543,7 @@
         <v>7855450</v>
       </c>
       <c r="B1079" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C1079" s="1">
         <v>182</v>
@@ -15551,7 +15554,7 @@
         <v>7855451</v>
       </c>
       <c r="B1080" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C1080" s="1">
         <v>182</v>
@@ -15562,7 +15565,7 @@
         <v>7856450</v>
       </c>
       <c r="B1081" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C1081" s="1">
         <v>182</v>
@@ -15573,7 +15576,7 @@
         <v>7856451</v>
       </c>
       <c r="B1082" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1082" s="1">
         <v>182</v>
@@ -15584,7 +15587,7 @@
         <v>7862450</v>
       </c>
       <c r="B1083" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1083" s="1">
         <v>182</v>
@@ -15595,7 +15598,7 @@
         <v>7862451</v>
       </c>
       <c r="B1084" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C1084" s="1">
         <v>182</v>
@@ -15606,7 +15609,7 @@
         <v>7870450</v>
       </c>
       <c r="B1085" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C1085" s="1">
         <v>182</v>
@@ -15617,7 +15620,7 @@
         <v>7870451</v>
       </c>
       <c r="B1086" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C1086" s="1">
         <v>182</v>
@@ -15628,7 +15631,7 @@
         <v>7888451</v>
       </c>
       <c r="B1087" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C1087" s="1">
         <v>182</v>
@@ -15639,7 +15642,7 @@
         <v>7890451</v>
       </c>
       <c r="B1088" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C1088" s="1">
         <v>182</v>
@@ -15650,7 +15653,7 @@
         <v>7903451</v>
       </c>
       <c r="B1089" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C1089" s="1">
         <v>182</v>
@@ -15661,7 +15664,7 @@
         <v>8124401</v>
       </c>
       <c r="B1090" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1090" s="1">
         <v>210</v>
@@ -15672,7 +15675,7 @@
         <v>8128451</v>
       </c>
       <c r="B1091" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C1091" s="1">
         <v>182</v>
@@ -15683,7 +15686,7 @@
         <v>8145451</v>
       </c>
       <c r="B1092" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C1092" s="1">
         <v>182</v>
@@ -15694,7 +15697,7 @@
         <v>8155451</v>
       </c>
       <c r="B1093" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C1093" s="1">
         <v>182</v>
@@ -15705,7 +15708,7 @@
         <v>8155453</v>
       </c>
       <c r="B1094" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C1094" s="1">
         <v>175</v>
@@ -15716,7 +15719,7 @@
         <v>8168450</v>
       </c>
       <c r="B1095" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C1095" s="1">
         <v>182</v>
@@ -15727,7 +15730,7 @@
         <v>8168451</v>
       </c>
       <c r="B1096" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C1096" s="1">
         <v>182</v>
@@ -15738,7 +15741,7 @@
         <v>6753401</v>
       </c>
       <c r="B1097" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C1097" s="1">
         <v>210</v>
@@ -15749,7 +15752,7 @@
         <v>7388401</v>
       </c>
       <c r="B1098" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C1098" s="1">
         <v>210</v>
@@ -15760,7 +15763,7 @@
         <v>7267401</v>
       </c>
       <c r="B1099" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C1099" s="1">
         <v>210</v>
@@ -15771,7 +15774,7 @@
         <v>7079401</v>
       </c>
       <c r="B1100" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C1100" s="1">
         <v>210</v>
@@ -15782,7 +15785,7 @@
         <v>7577240</v>
       </c>
       <c r="B1101" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C1101" s="1">
         <v>20</v>

--- a/Advance Stock/UOM.xlsx
+++ b/Advance Stock/UOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Advance Stock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008ECE0B-B1A6-4399-A75E-000EEAEC821C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8182E875-BF93-4C82-9E44-959181D6E971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF65A185-A3B8-4AF1-905D-A5939FA8F4CD}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1117</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="1110">
   <si>
     <t>SKU Name</t>
   </si>
@@ -3310,6 +3310,54 @@
   </si>
   <si>
     <t>HYUNDAI SERVO DEO ACEA C5-4 X 5 LUBE</t>
+  </si>
+  <si>
+    <t>SERVO ECO 4T-20 X 0.9 L</t>
+  </si>
+  <si>
+    <t>SERVO ECO 4T-20 X 1 L</t>
+  </si>
+  <si>
+    <t>SERVO ECO CF-4 15W-40-20 X 1 L</t>
+  </si>
+  <si>
+    <t>SERVO ECO CF-4 15W-40-4 X 3 L</t>
+  </si>
+  <si>
+    <t>SERVO ECO CF-4 15W-40-4 X 5 L</t>
+  </si>
+  <si>
+    <t>SERVO ECO CF-4 15W-40-10 L</t>
+  </si>
+  <si>
+    <t>SERVO ECO CF-4 15W-40-7.5 L</t>
+  </si>
+  <si>
+    <t>SERVO ECO CF-4 15W-40-15 L</t>
+  </si>
+  <si>
+    <t>SERVO ECO CF-4 15W-40-20 L</t>
+  </si>
+  <si>
+    <t>SERVO ECO CI4 PLUS 15W-40-20 X 1 L</t>
+  </si>
+  <si>
+    <t>SERVO ECO CI4 PLUS 15W-40-4 X 5 L</t>
+  </si>
+  <si>
+    <t>SERVO ECO CI4 PLUS 15W-40-10 L</t>
+  </si>
+  <si>
+    <t>SERVO ECO CI4 PLUS 15W-40-7.5 L</t>
+  </si>
+  <si>
+    <t>SERVO ECO CI4 PLUS 15W-40-15 L</t>
+  </si>
+  <si>
+    <t>SERVO ECO TRACTOR OIL-20 X 1 L</t>
+  </si>
+  <si>
+    <t>SERVO ECO TRACTOR OIL-7.5 L</t>
   </si>
 </sst>
 </file>
@@ -3667,10 +3715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1903B9F1-43DC-44BD-B1E4-00910B416442}">
-  <dimension ref="A1:C1101"/>
+  <dimension ref="A1:C1117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15791,6 +15839,182 @@
         <v>20</v>
       </c>
     </row>
+    <row r="1102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1102" s="1">
+        <v>2874152</v>
+      </c>
+      <c r="B1102" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C1102" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1103" s="1">
+        <v>2874184</v>
+      </c>
+      <c r="B1103" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C1103" s="1">
+        <v>20.000000000000014</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1104" s="1">
+        <v>7364184</v>
+      </c>
+      <c r="B1104" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C1104" s="1">
+        <v>20.000000000000014</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1105" s="1">
+        <v>7364203</v>
+      </c>
+      <c r="B1105" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C1105" s="1">
+        <v>12.000000000000005</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1106" s="1">
+        <v>7364234</v>
+      </c>
+      <c r="B1106" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C1106" s="1">
+        <v>20.000000000000014</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1107" s="1">
+        <v>7364242</v>
+      </c>
+      <c r="B1107" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C1107" s="1">
+        <v>10.000000000000004</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1108" s="1">
+        <v>7364251</v>
+      </c>
+      <c r="B1108" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C1108" s="1">
+        <v>7.5000000000000053</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1109" s="1">
+        <v>7364256</v>
+      </c>
+      <c r="B1109" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C1109" s="1">
+        <v>15.000000000000011</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1110" s="1">
+        <v>7364265</v>
+      </c>
+      <c r="B1110" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C1110" s="1">
+        <v>20.000000000000014</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1111" s="1">
+        <v>7370184</v>
+      </c>
+      <c r="B1111" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C1111" s="1">
+        <v>20.000000000000014</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1112" s="1">
+        <v>7370234</v>
+      </c>
+      <c r="B1112" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C1112" s="1">
+        <v>20.000000000000014</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1113" s="1">
+        <v>7370242</v>
+      </c>
+      <c r="B1113" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C1113" s="1">
+        <v>10.000000000000004</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1114" s="1">
+        <v>7370251</v>
+      </c>
+      <c r="B1114" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1114" s="1">
+        <v>7.5000000000000053</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1115" s="1">
+        <v>7370256</v>
+      </c>
+      <c r="B1115" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C1115" s="1">
+        <v>15.000000000000011</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1116" s="1">
+        <v>7376184</v>
+      </c>
+      <c r="B1116" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C1116" s="1">
+        <v>20.000000000000014</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1117" s="1">
+        <v>7376251</v>
+      </c>
+      <c r="B1117" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C1117" s="1">
+        <v>7.5000000000000053</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Advance Stock/UOM.xlsx
+++ b/Advance Stock/UOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Advance Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8182E875-BF93-4C82-9E44-959181D6E971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FCBD76-9390-415D-8298-23931CD1FED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF65A185-A3B8-4AF1-905D-A5939FA8F4CD}"/>
   </bookViews>
@@ -3715,10 +3715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1903B9F1-43DC-44BD-B1E4-00910B416442}">
-  <dimension ref="A1:C1117"/>
+  <dimension ref="A1:C1118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A1100" workbookViewId="0">
+      <selection activeCell="D1116" sqref="D1116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16015,6 +16015,10 @@
         <v>7.5000000000000053</v>
       </c>
     </row>
+    <row r="1118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1118"/>
+      <c r="B1118"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Advance Stock/UOM.xlsx
+++ b/Advance Stock/UOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Advance Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FCBD76-9390-415D-8298-23931CD1FED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B70F576-8C00-4616-9E5B-4D2B051E0C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF65A185-A3B8-4AF1-905D-A5939FA8F4CD}"/>
   </bookViews>
@@ -3717,8 +3717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1903B9F1-43DC-44BD-B1E4-00910B416442}">
   <dimension ref="A1:C1118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1100" workbookViewId="0">
-      <selection activeCell="D1116" sqref="D1116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Advance Stock/UOM.xlsx
+++ b/Advance Stock/UOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Advance Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B70F576-8C00-4616-9E5B-4D2B051E0C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2576140F-BA25-4417-8620-0AFADF844CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF65A185-A3B8-4AF1-905D-A5939FA8F4CD}"/>
   </bookViews>
@@ -3718,7 +3718,7 @@
   <dimension ref="A1:C1118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Advance Stock/UOM.xlsx
+++ b/Advance Stock/UOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Advance Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2576140F-BA25-4417-8620-0AFADF844CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3BDEA1-F254-4324-9862-18F61577E669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF65A185-A3B8-4AF1-905D-A5939FA8F4CD}"/>
   </bookViews>
@@ -3718,7 +3718,7 @@
   <dimension ref="A1:C1118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
